--- a/template.xlsx
+++ b/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ntwrk-my.sharepoint.com/personal/wes_ntwrk_com_au/Documents/Sabres 14.7 Boys (2025)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Local Sites/playhq-puppeteer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{931FFD28-76B2-42BA-96EF-F15F43AF361F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CF662B7-3ED5-E244-85B3-24A3B1FB21FE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5ADA7B4-DFBC-6C4B-80F8-9BF80CBF3B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="30000" windowHeight="17720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19360" windowHeight="17420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keyborough 2 (Grading)" sheetId="3" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -162,36 +160,6 @@
   </si>
   <si>
     <t>Rebound (Defensive)</t>
-  </si>
-  <si>
-    <t>Hugo Fischer</t>
-  </si>
-  <si>
-    <t>Leo Robbins</t>
-  </si>
-  <si>
-    <t>Nate Harrison</t>
-  </si>
-  <si>
-    <t>Thomas Semple</t>
-  </si>
-  <si>
-    <t>Zacharie Khan</t>
-  </si>
-  <si>
-    <t>Harrison Bradley</t>
-  </si>
-  <si>
-    <t>Zakk Bosman</t>
-  </si>
-  <si>
-    <t>Harley Stein</t>
-  </si>
-  <si>
-    <t>Charles Ferro</t>
-  </si>
-  <si>
-    <t>Heath Curtis</t>
   </si>
   <si>
     <t>#</t>
@@ -670,91 +638,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -770,6 +653,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -970,10 +872,76 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1035,461 +1003,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1505,6 +1018,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1520,6 +1052,215 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1535,6 +1276,97 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1550,6 +1382,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1565,6 +1416,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1580,6 +1450,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1595,6 +1484,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1615,6 +1523,66 @@
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1851,80 +1819,80 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9289FB7A-F9FE-47B2-A61A-372F1EAF4D76}" name="Table1" displayName="Table1" ref="B1:Q12" totalsRowCount="1" headerRowDxfId="64" dataDxfId="62" totalsRowDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9289FB7A-F9FE-47B2-A61A-372F1EAF4D76}" name="Table1" displayName="Table1" ref="B1:Q12" totalsRowCount="1" headerRowDxfId="73" dataDxfId="72" totalsRowDxfId="71">
   <autoFilter ref="B1:Q11" xr:uid="{9289FB7A-F9FE-47B2-A61A-372F1EAF4D76}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{0DCCD737-2F9C-4C56-86D3-DACA3DEE46FC}" name="Name" dataDxfId="73" totalsRowDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{DBEF0010-AB5F-4DF4-AC96-4918E65AAACD}" name="Steals" totalsRowFunction="sum" dataDxfId="72" totalsRowDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{0F3F0133-2FB2-4560-9F4E-C3D896C1BB7F}" name="Turnovers" totalsRowFunction="sum" dataDxfId="71" totalsRowDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{05780724-50A5-42AF-A1DA-DD5A3B2A0E75}" name="Assists" dataDxfId="70" totalsRowDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{7D06BD51-A418-4946-8446-3509CE2B3715}" name="Rebound (Offensive)" totalsRowFunction="sum" dataDxfId="69" totalsRowDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{25937FB4-F0BC-4F8C-A877-18164AF278F4}" name="Rebound (Defensive)" totalsRowFunction="sum" dataDxfId="68" totalsRowDxfId="49"/>
-    <tableColumn id="12" xr3:uid="{24DED43B-9596-FD48-9633-A77446C30730}" name="Charge (Offensive)" dataDxfId="56" totalsRowDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{C57A2772-D739-4048-BE6A-B95F004F3075}" name="Charge (Defensive)" dataDxfId="55" totalsRowDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{C483B6DC-9770-48B2-B3D6-72FEC401E36B}" name="Field Goal (A)" dataDxfId="67" totalsRowDxfId="46"/>
-    <tableColumn id="13" xr3:uid="{D9550862-C9B5-CE41-A383-E5A68FACA7FC}" name="Three Pointer (A)" dataDxfId="60" totalsRowDxfId="45"/>
-    <tableColumn id="11" xr3:uid="{4539A49F-5AF0-2B4F-9B72-C30D9E6818FF}" name="Foul Shot (A)" dataDxfId="61" totalsRowDxfId="44"/>
-    <tableColumn id="14" xr3:uid="{61DD41EA-CDE9-0D42-A513-0984770BC717}" name="Field Goal (M)" dataDxfId="59" totalsRowDxfId="43"/>
-    <tableColumn id="15" xr3:uid="{ABD214C3-15A0-3744-8411-053D73CE7FFF}" name="Three Pointer (M)" dataDxfId="58" totalsRowDxfId="42"/>
-    <tableColumn id="16" xr3:uid="{FBED477F-0BD5-3240-A619-E25159176C13}" name="Foul Shot (M)" dataDxfId="57" totalsRowDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{0B1A8243-3F3E-4C68-B5A6-2F6DE6001A27}" name="Points " totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="40"/>
-    <tableColumn id="10" xr3:uid="{AB9781F0-EF91-43B8-A406-38C09F69BCCA}" name="Notes" dataDxfId="65" totalsRowDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{0DCCD737-2F9C-4C56-86D3-DACA3DEE46FC}" name="Name" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{DBEF0010-AB5F-4DF4-AC96-4918E65AAACD}" name="Steals" totalsRowFunction="sum" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{0F3F0133-2FB2-4560-9F4E-C3D896C1BB7F}" name="Turnovers" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{05780724-50A5-42AF-A1DA-DD5A3B2A0E75}" name="Assists" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{7D06BD51-A418-4946-8446-3509CE2B3715}" name="Rebound (Offensive)" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{25937FB4-F0BC-4F8C-A877-18164AF278F4}" name="Rebound (Defensive)" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="12" xr3:uid="{24DED43B-9596-FD48-9633-A77446C30730}" name="Charge (Offensive)" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="9" xr3:uid="{C57A2772-D739-4048-BE6A-B95F004F3075}" name="Charge (Defensive)" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{C483B6DC-9770-48B2-B3D6-72FEC401E36B}" name="Field Goal (A)" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="13" xr3:uid="{D9550862-C9B5-CE41-A383-E5A68FACA7FC}" name="Three Pointer (A)" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{4539A49F-5AF0-2B4F-9B72-C30D9E6818FF}" name="Foul Shot (A)" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="14" xr3:uid="{61DD41EA-CDE9-0D42-A513-0984770BC717}" name="Field Goal (M)" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="15" xr3:uid="{ABD214C3-15A0-3744-8411-053D73CE7FFF}" name="Three Pointer (M)" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="16" xr3:uid="{FBED477F-0BD5-3240-A619-E25159176C13}" name="Foul Shot (M)" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{0B1A8243-3F3E-4C68-B5A6-2F6DE6001A27}" name="Points " totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{AB9781F0-EF91-43B8-A406-38C09F69BCCA}" name="Notes" dataDxfId="40" totalsRowDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0A5F5190-7923-AA47-94BD-06EB5CE9D4CF}" name="Table15" displayName="Table15" ref="A1:R12" totalsRowCount="1" headerRowDxfId="38" dataDxfId="37" totalsRowDxfId="36">
-  <autoFilter ref="A1:R11" xr:uid="{9289FB7A-F9FE-47B2-A61A-372F1EAF4D76}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0A5F5190-7923-AA47-94BD-06EB5CE9D4CF}" name="Table15" displayName="Table15" ref="A1:R19" totalsRowCount="1" headerRowDxfId="38" dataDxfId="37" totalsRowDxfId="36">
+  <autoFilter ref="A1:R18" xr:uid="{9289FB7A-F9FE-47B2-A61A-372F1EAF4D76}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{62D4EE4D-C20B-864B-9187-DDCFE82FE18B}" name="#" totalsRowLabel="TOTAL" dataDxfId="21" totalsRowDxfId="17"/>
-    <tableColumn id="17" xr3:uid="{8D5F1A19-007B-7147-AF72-3693ED107653}" name="Name" dataDxfId="22" totalsRowDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{AFEC4163-23CE-794F-8411-5EBE02F3314C}" name="Steals" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="15">
+    <tableColumn id="1" xr3:uid="{62D4EE4D-C20B-864B-9187-DDCFE82FE18B}" name="#" totalsRowLabel="TOTAL" dataDxfId="35" totalsRowDxfId="17"/>
+    <tableColumn id="17" xr3:uid="{8D5F1A19-007B-7147-AF72-3693ED107653}" name="Name" dataDxfId="34" totalsRowDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{AFEC4163-23CE-794F-8411-5EBE02F3314C}" name="Steals" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="15">
       <totalsRowFormula>SUM(Table15[Steals])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{55C71104-A5CC-5B4A-85AD-CDDDFFFC9E0B}" name="Turnovers" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="14">
+    <tableColumn id="3" xr3:uid="{55C71104-A5CC-5B4A-85AD-CDDDFFFC9E0B}" name="Turnovers" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="14">
       <totalsRowFormula>SUM(Table15[Turnovers])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{0A5F08E2-08E5-224B-8899-3BAA76F29F03}" name="Assists" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="13">
+    <tableColumn id="4" xr3:uid="{0A5F08E2-08E5-224B-8899-3BAA76F29F03}" name="Assists" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="13">
       <totalsRowFormula>SUM(Table15[Assists])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4637DF51-6285-274D-AE77-A78C08833436}" name="Rebound (Offensive)" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="12">
+    <tableColumn id="5" xr3:uid="{4637DF51-6285-274D-AE77-A78C08833436}" name="Rebound (Offensive)" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="12">
       <totalsRowFormula>SUM(Table15[Rebound (Offensive)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F5E9E444-BC58-F240-953D-4F06EEDC88E8}" name="Rebound (Defensive)" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="11">
+    <tableColumn id="6" xr3:uid="{F5E9E444-BC58-F240-953D-4F06EEDC88E8}" name="Rebound (Defensive)" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="11">
       <totalsRowFormula>SUM(Table15[Rebound (Defensive)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{4D352443-4EDA-844C-8833-71848E9987A7}" name="Charge (Offensive)" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="10">
+    <tableColumn id="12" xr3:uid="{4D352443-4EDA-844C-8833-71848E9987A7}" name="Charge (Offensive)" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="10">
       <totalsRowFormula>SUM(Table15[Charge (Offensive)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{BDA422A5-F0F2-E347-8342-676DF7B0AE26}" name="Charge (Defensive)" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="9">
+    <tableColumn id="9" xr3:uid="{BDA422A5-F0F2-E347-8342-676DF7B0AE26}" name="Charge (Defensive)" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="9">
       <totalsRowFormula>SUM(Table15[Charge (Defensive)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{71017EB4-69AC-CC43-9505-3DCF1281384D}" name="Field Goal (A)" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="8">
+    <tableColumn id="7" xr3:uid="{71017EB4-69AC-CC43-9505-3DCF1281384D}" name="Field Goal (A)" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="8">
       <totalsRowFormula>SUM(Table15[Field Goal (A)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{7A81D1F6-F704-CB47-A5C6-32B2A8CC83BD}" name="Three Pointer (A)" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="7">
+    <tableColumn id="13" xr3:uid="{7A81D1F6-F704-CB47-A5C6-32B2A8CC83BD}" name="Three Pointer (A)" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="7">
       <totalsRowFormula>SUM(Table15[Three Pointer (A)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C9C5C64D-B6D2-0F43-B742-81C7D92AD0D7}" name="Foul Shot (A)" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="6">
+    <tableColumn id="11" xr3:uid="{C9C5C64D-B6D2-0F43-B742-81C7D92AD0D7}" name="Foul Shot (A)" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="6">
       <totalsRowFormula>SUM(Table15[Foul Shot (A)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{BCB58A41-91E6-D644-8402-3BEE1D301972}" name="Field Goal (M)" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="5">
+    <tableColumn id="14" xr3:uid="{BCB58A41-91E6-D644-8402-3BEE1D301972}" name="Field Goal (M)" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="5">
       <totalsRowFormula>SUM(Table15[Field Goal (M)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{3427C1D8-11B9-C448-8CFC-73CBE605A5BD}" name="Three Pointer (M)" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="4">
+    <tableColumn id="15" xr3:uid="{3427C1D8-11B9-C448-8CFC-73CBE605A5BD}" name="Three Pointer (M)" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="4">
       <totalsRowFormula>SUM(Table15[Three Pointer (M)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{9485E5E0-7533-B04C-BA17-A3336F51A3F7}" name="Foul Shot (M)" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="3">
+    <tableColumn id="16" xr3:uid="{9485E5E0-7533-B04C-BA17-A3336F51A3F7}" name="Foul Shot (M)" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="3">
       <totalsRowFormula>SUM(Table15[Foul Shot (M)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5A66CC86-7A2A-F946-9EB5-BE2F1815C28E}" name="Points " totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="2">
+    <tableColumn id="8" xr3:uid="{5A66CC86-7A2A-F946-9EB5-BE2F1815C28E}" name="Points " totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="2">
       <totalsRowFormula>SUM(Table15[[Points ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{770C0366-2674-CE42-9626-8FC9CBE2DD4A}" name="Fouls" dataDxfId="18" totalsRowDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{6C63BB21-597E-DE46-8756-211705B4DCC1}" name="Notes" dataDxfId="23" totalsRowDxfId="0"/>
+    <tableColumn id="18" xr3:uid="{770C0366-2674-CE42-9626-8FC9CBE2DD4A}" name="Fouls" dataDxfId="19" totalsRowDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{6C63BB21-597E-DE46-8756-211705B4DCC1}" name="Notes" dataDxfId="18" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2251,7 +2219,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
@@ -2551,7 +2519,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
@@ -2859,7 +2827,7 @@
       <selection activeCell="D18" sqref="D18:G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="20" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="1" bestFit="1" customWidth="1"/>
@@ -2880,7 +2848,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3265,8 +3233,8 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:19" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="19" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
@@ -3302,13 +3270,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2AB1E3-EB5C-844B-B436-311A4E55F778}">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="P1" activeCellId="2" sqref="M1:O1 Q1 P1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
@@ -3329,7 +3297,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3377,7 +3345,7 @@
         <v>7</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>30</v>
@@ -3385,12 +3353,6 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -3410,12 +3372,6 @@
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -3435,12 +3391,6 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>29</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -3460,12 +3410,6 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>31</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -3485,12 +3429,6 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>32</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -3510,12 +3448,6 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -3535,12 +3467,6 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>37</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -3560,12 +3486,6 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>61</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -3585,12 +3505,6 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>65</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -3609,13 +3523,7 @@
       <c r="R10" s="5"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>73</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>50</v>
-      </c>
+    <row r="11" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -3634,92 +3542,225 @@
       <c r="R11" s="5"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="5">
-        <f>SUM(Table15[Steals])</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
-        <f>SUM(Table15[Turnovers])</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <f>SUM(Table15[Assists])</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <f>SUM(Table15[Rebound (Offensive)])</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <f>SUM(Table15[Rebound (Defensive)])</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <f>SUM(Table15[Charge (Offensive)])</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <f>SUM(Table15[Charge (Defensive)])</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <f>SUM(Table15[Field Goal (A)])</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="5">
-        <f>SUM(Table15[Three Pointer (A)])</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="5">
-        <f>SUM(Table15[Foul Shot (A)])</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="5">
-        <f>SUM(Table15[Field Goal (M)])</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="5">
-        <f>SUM(Table15[Three Pointer (M)])</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="5">
-        <f>SUM(Table15[Foul Shot (M)])</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="5">
-        <f>SUM(Table15[[Points ]])</f>
-        <v>0</v>
-      </c>
+    <row r="12" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:19" ht="41" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="9"/>
+    <row r="13" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="5">
+        <f>SUM(Table15[Steals])</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <f>SUM(Table15[Turnovers])</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <f>SUM(Table15[Assists])</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <f>SUM(Table15[Rebound (Offensive)])</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <f>SUM(Table15[Rebound (Defensive)])</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <f>SUM(Table15[Charge (Offensive)])</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <f>SUM(Table15[Charge (Defensive)])</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <f>SUM(Table15[Field Goal (A)])</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <f>SUM(Table15[Three Pointer (A)])</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <f>SUM(Table15[Foul Shot (A)])</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <f>SUM(Table15[Field Goal (M)])</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
+        <f>SUM(Table15[Three Pointer (M)])</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="5">
+        <f>SUM(Table15[Foul Shot (M)])</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="5">
+        <f>SUM(Table15[[Points ]])</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" ht="19" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:19" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Local Sites/playhq-puppeteer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5ADA7B4-DFBC-6C4B-80F8-9BF80CBF3B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9A787B9-DEC9-A548-9E26-4F4F6FA2E88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19360" windowHeight="17420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="30000" windowHeight="17720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keyborough 2 (Grading)" sheetId="3" r:id="rId1"/>
@@ -30,6 +30,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -160,6 +162,36 @@
   </si>
   <si>
     <t>Rebound (Defensive)</t>
+  </si>
+  <si>
+    <t>Hugo Fischer</t>
+  </si>
+  <si>
+    <t>Leo Robbins</t>
+  </si>
+  <si>
+    <t>Nate Harrison</t>
+  </si>
+  <si>
+    <t>Thomas Semple</t>
+  </si>
+  <si>
+    <t>Zacharie Khan</t>
+  </si>
+  <si>
+    <t>Harrison Bradley</t>
+  </si>
+  <si>
+    <t>Zakk Bosman</t>
+  </si>
+  <si>
+    <t>Harley Stein</t>
+  </si>
+  <si>
+    <t>Charles Ferro</t>
+  </si>
+  <si>
+    <t>Heath Curtis</t>
   </si>
   <si>
     <t>#</t>
@@ -317,327 +349,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -672,6 +383,44 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -782,6 +531,120 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -797,7 +660,64 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -846,6 +766,25 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -861,22 +800,79 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -903,6 +899,42 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1844,55 +1876,55 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0A5F5190-7923-AA47-94BD-06EB5CE9D4CF}" name="Table15" displayName="Table15" ref="A1:R19" totalsRowCount="1" headerRowDxfId="38" dataDxfId="37" totalsRowDxfId="36">
-  <autoFilter ref="A1:R18" xr:uid="{9289FB7A-F9FE-47B2-A61A-372F1EAF4D76}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0A5F5190-7923-AA47-94BD-06EB5CE9D4CF}" name="Table15" displayName="Table15" ref="A1:R12" totalsRowCount="1" headerRowDxfId="38" dataDxfId="37" totalsRowDxfId="36">
+  <autoFilter ref="A1:R11" xr:uid="{9289FB7A-F9FE-47B2-A61A-372F1EAF4D76}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{62D4EE4D-C20B-864B-9187-DDCFE82FE18B}" name="#" totalsRowLabel="TOTAL" dataDxfId="35" totalsRowDxfId="17"/>
-    <tableColumn id="17" xr3:uid="{8D5F1A19-007B-7147-AF72-3693ED107653}" name="Name" dataDxfId="34" totalsRowDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{AFEC4163-23CE-794F-8411-5EBE02F3314C}" name="Steals" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="15">
+    <tableColumn id="1" xr3:uid="{62D4EE4D-C20B-864B-9187-DDCFE82FE18B}" name="#" totalsRowLabel="TOTAL" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="17" xr3:uid="{8D5F1A19-007B-7147-AF72-3693ED107653}" name="Name" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{AFEC4163-23CE-794F-8411-5EBE02F3314C}" name="Steals" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
       <totalsRowFormula>SUM(Table15[Steals])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{55C71104-A5CC-5B4A-85AD-CDDDFFFC9E0B}" name="Turnovers" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="14">
+    <tableColumn id="3" xr3:uid="{55C71104-A5CC-5B4A-85AD-CDDDFFFC9E0B}" name="Turnovers" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
       <totalsRowFormula>SUM(Table15[Turnovers])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{0A5F08E2-08E5-224B-8899-3BAA76F29F03}" name="Assists" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="13">
+    <tableColumn id="4" xr3:uid="{0A5F08E2-08E5-224B-8899-3BAA76F29F03}" name="Assists" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
       <totalsRowFormula>SUM(Table15[Assists])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4637DF51-6285-274D-AE77-A78C08833436}" name="Rebound (Offensive)" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="12">
+    <tableColumn id="5" xr3:uid="{4637DF51-6285-274D-AE77-A78C08833436}" name="Rebound (Offensive)" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
       <totalsRowFormula>SUM(Table15[Rebound (Offensive)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F5E9E444-BC58-F240-953D-4F06EEDC88E8}" name="Rebound (Defensive)" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="11">
+    <tableColumn id="6" xr3:uid="{F5E9E444-BC58-F240-953D-4F06EEDC88E8}" name="Rebound (Defensive)" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
       <totalsRowFormula>SUM(Table15[Rebound (Defensive)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{4D352443-4EDA-844C-8833-71848E9987A7}" name="Charge (Offensive)" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="10">
+    <tableColumn id="12" xr3:uid="{4D352443-4EDA-844C-8833-71848E9987A7}" name="Charge (Offensive)" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
       <totalsRowFormula>SUM(Table15[Charge (Offensive)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{BDA422A5-F0F2-E347-8342-676DF7B0AE26}" name="Charge (Defensive)" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="9">
+    <tableColumn id="9" xr3:uid="{BDA422A5-F0F2-E347-8342-676DF7B0AE26}" name="Charge (Defensive)" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
       <totalsRowFormula>SUM(Table15[Charge (Defensive)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{71017EB4-69AC-CC43-9505-3DCF1281384D}" name="Field Goal (A)" totalsRowFunction="custom" dataDxfId="26" totalsRowDxfId="8">
+    <tableColumn id="7" xr3:uid="{71017EB4-69AC-CC43-9505-3DCF1281384D}" name="Field Goal (A)" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
       <totalsRowFormula>SUM(Table15[Field Goal (A)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{7A81D1F6-F704-CB47-A5C6-32B2A8CC83BD}" name="Three Pointer (A)" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="7">
+    <tableColumn id="13" xr3:uid="{7A81D1F6-F704-CB47-A5C6-32B2A8CC83BD}" name="Three Pointer (A)" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
       <totalsRowFormula>SUM(Table15[Three Pointer (A)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C9C5C64D-B6D2-0F43-B742-81C7D92AD0D7}" name="Foul Shot (A)" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="6">
+    <tableColumn id="11" xr3:uid="{C9C5C64D-B6D2-0F43-B742-81C7D92AD0D7}" name="Foul Shot (A)" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
       <totalsRowFormula>SUM(Table15[Foul Shot (A)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{BCB58A41-91E6-D644-8402-3BEE1D301972}" name="Field Goal (M)" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="5">
+    <tableColumn id="14" xr3:uid="{BCB58A41-91E6-D644-8402-3BEE1D301972}" name="Field Goal (M)" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
       <totalsRowFormula>SUM(Table15[Field Goal (M)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{3427C1D8-11B9-C448-8CFC-73CBE605A5BD}" name="Three Pointer (M)" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="4">
+    <tableColumn id="15" xr3:uid="{3427C1D8-11B9-C448-8CFC-73CBE605A5BD}" name="Three Pointer (M)" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
       <totalsRowFormula>SUM(Table15[Three Pointer (M)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{9485E5E0-7533-B04C-BA17-A3336F51A3F7}" name="Foul Shot (M)" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="3">
+    <tableColumn id="16" xr3:uid="{9485E5E0-7533-B04C-BA17-A3336F51A3F7}" name="Foul Shot (M)" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
       <totalsRowFormula>SUM(Table15[Foul Shot (M)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5A66CC86-7A2A-F946-9EB5-BE2F1815C28E}" name="Points " totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="2">
+    <tableColumn id="8" xr3:uid="{5A66CC86-7A2A-F946-9EB5-BE2F1815C28E}" name="Points " totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
       <totalsRowFormula>SUM(Table15[[Points ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{770C0366-2674-CE42-9626-8FC9CBE2DD4A}" name="Fouls" dataDxfId="19" totalsRowDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{6C63BB21-597E-DE46-8756-211705B4DCC1}" name="Notes" dataDxfId="18" totalsRowDxfId="0"/>
+    <tableColumn id="18" xr3:uid="{770C0366-2674-CE42-9626-8FC9CBE2DD4A}" name="Fouls" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{6C63BB21-597E-DE46-8756-211705B4DCC1}" name="Notes" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2848,7 +2880,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3270,10 +3302,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2AB1E3-EB5C-844B-B436-311A4E55F778}">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="P1" activeCellId="2" sqref="M1:O1 Q1 P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3297,7 +3329,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3345,7 +3377,7 @@
         <v>7</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>30</v>
@@ -3353,6 +3385,12 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -3372,6 +3410,12 @@
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -3391,6 +3435,12 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -3410,6 +3460,12 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -3429,6 +3485,12 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -3448,6 +3510,12 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -3467,6 +3535,12 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>37</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -3486,6 +3560,12 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>61</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -3505,6 +3585,12 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>65</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -3523,7 +3609,13 @@
       <c r="R10" s="5"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>73</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -3542,225 +3634,92 @@
       <c r="R11" s="5"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="5">
+        <f>SUM(Table15[Steals])</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <f>SUM(Table15[Turnovers])</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <f>SUM(Table15[Assists])</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <f>SUM(Table15[Rebound (Offensive)])</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <f>SUM(Table15[Rebound (Defensive)])</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <f>SUM(Table15[Charge (Offensive)])</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <f>SUM(Table15[Charge (Defensive)])</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <f>SUM(Table15[Field Goal (A)])</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <f>SUM(Table15[Three Pointer (A)])</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <f>SUM(Table15[Foul Shot (A)])</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <f>SUM(Table15[Field Goal (M)])</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <f>SUM(Table15[Three Pointer (M)])</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <f>SUM(Table15[Foul Shot (M)])</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <f>SUM(Table15[[Points ]])</f>
+        <v>0</v>
+      </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="1"/>
-    </row>
-    <row r="16" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="1"/>
-    </row>
-    <row r="17" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="1"/>
-    </row>
-    <row r="18" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="1"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="5">
-        <f>SUM(Table15[Steals])</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="5">
-        <f>SUM(Table15[Turnovers])</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
-        <f>SUM(Table15[Assists])</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
-        <f>SUM(Table15[Rebound (Offensive)])</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="5">
-        <f>SUM(Table15[Rebound (Defensive)])</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="5">
-        <f>SUM(Table15[Charge (Offensive)])</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="5">
-        <f>SUM(Table15[Charge (Defensive)])</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="5">
-        <f>SUM(Table15[Field Goal (A)])</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="5">
-        <f>SUM(Table15[Three Pointer (A)])</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="5">
-        <f>SUM(Table15[Foul Shot (A)])</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="5">
-        <f>SUM(Table15[Field Goal (M)])</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="5">
-        <f>SUM(Table15[Three Pointer (M)])</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="5">
-        <f>SUM(Table15[Foul Shot (M)])</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="5">
-        <f>SUM(Table15[[Points ]])</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="1"/>
-    </row>
-    <row r="20" spans="1:19" ht="19" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:19" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="9"/>
+    <row r="13" spans="1:19" ht="19" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:19" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Local Sites/playhq-puppeteer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ntwrk.sharepoint.com/sites/Clients/Shared Documents/Current/Sabres/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9A787B9-DEC9-A548-9E26-4F4F6FA2E88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="704" documentId="8_{B9A787B9-DEC9-A548-9E26-4F4F6FA2E88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F35A29AA-F18D-BD45-BB51-F2888EE0D1BB}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="30000" windowHeight="17720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="30000" windowHeight="17720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keyborough 2 (Grading)" sheetId="3" r:id="rId1"/>
     <sheet name="Pakenham 5 (Grading)" sheetId="4" r:id="rId2"/>
     <sheet name="McKinnon 6 (Grading)" sheetId="1" r:id="rId3"/>
-    <sheet name="Template" sheetId="5" r:id="rId4"/>
+    <sheet name="Camberwell 7 (Round 1)" sheetId="6" r:id="rId4"/>
+    <sheet name="Westernport 3 (Round 2)" sheetId="7" r:id="rId5"/>
+    <sheet name="Aggregate" sheetId="8" r:id="rId6"/>
+    <sheet name="MVP" sheetId="9" r:id="rId7"/>
+    <sheet name="Template" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="134">
   <si>
     <t>Name</t>
   </si>
@@ -119,82 +123,133 @@
     <t>No Game</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Steals</t>
+  </si>
+  <si>
+    <t>Turnovers</t>
+  </si>
+  <si>
+    <t>Assists</t>
+  </si>
+  <si>
+    <t>Rebound (Offensive)</t>
+  </si>
+  <si>
+    <t>Rebound (Defensive)</t>
+  </si>
+  <si>
+    <t>Charge (Offensive)</t>
+  </si>
+  <si>
+    <t>Charge (Defensive)</t>
+  </si>
+  <si>
+    <t>Field Goal (A)</t>
+  </si>
+  <si>
+    <t>Three Pointer (A)</t>
+  </si>
+  <si>
+    <t>Foul Shot (A)</t>
+  </si>
+  <si>
+    <t>Field Goal (M)</t>
+  </si>
+  <si>
+    <t>Three Pointer (M)</t>
+  </si>
+  <si>
+    <t>Foul Shot (M)</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
     <t>Oposition Rebound</t>
   </si>
   <si>
-    <t>Steals</t>
-  </si>
-  <si>
-    <t>Turnovers</t>
-  </si>
-  <si>
-    <t>Assists</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Charge (Offensive)</t>
-  </si>
-  <si>
-    <t>Charge (Defensive)</t>
-  </si>
-  <si>
-    <t>Field Goal (A)</t>
-  </si>
-  <si>
-    <t>Three Pointer (A)</t>
-  </si>
-  <si>
-    <t>Foul Shot (A)</t>
-  </si>
-  <si>
-    <t>Field Goal (M)</t>
-  </si>
-  <si>
-    <t>Three Pointer (M)</t>
-  </si>
-  <si>
-    <t>Foul Shot (M)</t>
-  </si>
-  <si>
-    <t>Rebound (Offensive)</t>
-  </si>
-  <si>
-    <t>Rebound (Defensive)</t>
-  </si>
-  <si>
-    <t>Hugo Fischer</t>
-  </si>
-  <si>
-    <t>Leo Robbins</t>
-  </si>
-  <si>
-    <t>Nate Harrison</t>
-  </si>
-  <si>
-    <t>Thomas Semple</t>
-  </si>
-  <si>
-    <t>Zacharie Khan</t>
-  </si>
-  <si>
-    <t>Harrison Bradley</t>
-  </si>
-  <si>
-    <t>Zakk Bosman</t>
-  </si>
-  <si>
-    <t>Harley Stein</t>
-  </si>
-  <si>
-    <t>Charles Ferro</t>
-  </si>
-  <si>
-    <t>Heath Curtis</t>
-  </si>
-  <si>
-    <t>#</t>
+    <t>Fouls</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Hugo Fischer</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Leo Robbins</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Nate Harrison</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Thomas Semple</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Zacharie Khan</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Harrison Bradley</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Zakk Bosman</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>Harley Stein</t>
+  </si>
+  <si>
+    <t>Charles Ferro</t>
+  </si>
+  <si>
+    <t>DNP</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>Heath Curtis</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -203,14 +258,203 @@
     <t>Oposition Rebounds</t>
   </si>
   <si>
-    <t>Fouls</t>
+    <t>Three Pointer (%)</t>
+  </si>
+  <si>
+    <t>Foul Shot (%)</t>
+  </si>
+  <si>
+    <t>Field Goal (%)</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>Round 1</t>
+  </si>
+  <si>
+    <t>Round 2</t>
+  </si>
+  <si>
+    <t>Opponent</t>
+  </si>
+  <si>
+    <t>Camberwell 7</t>
+  </si>
+  <si>
+    <t>Westernport 3</t>
+  </si>
+  <si>
+    <t>Foul Shot (A)2</t>
+  </si>
+  <si>
+    <t>Field Goal (A)3</t>
+  </si>
+  <si>
+    <t>Three Pointer (A)4</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>39 - 39</t>
+  </si>
+  <si>
+    <t>37 - 47</t>
+  </si>
+  <si>
+    <t>TOTAL REBOUNDS</t>
+  </si>
+  <si>
+    <t>OPPOSITION</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>PLAYERS POINTS</t>
+  </si>
+  <si>
+    <t>Round 18</t>
+  </si>
+  <si>
+    <t>Round 17</t>
+  </si>
+  <si>
+    <t>Round 16</t>
+  </si>
+  <si>
+    <t>Round 15</t>
+  </si>
+  <si>
+    <t>Round 14</t>
+  </si>
+  <si>
+    <t>Round 13</t>
+  </si>
+  <si>
+    <t>Round 12</t>
+  </si>
+  <si>
+    <t>Round 11</t>
+  </si>
+  <si>
+    <t>Round 10</t>
+  </si>
+  <si>
+    <t>Round 9</t>
+  </si>
+  <si>
+    <t>Round 8</t>
+  </si>
+  <si>
+    <t>Round 7</t>
+  </si>
+  <si>
+    <t>Round 6</t>
+  </si>
+  <si>
+    <t>Round 5</t>
+  </si>
+  <si>
+    <t>Round 4</t>
+  </si>
+  <si>
+    <t>Round 3</t>
+  </si>
+  <si>
+    <t>2024 Sabres Team MVP Voting - VJBL season only</t>
+  </si>
+  <si>
+    <t>W (37 - 47)</t>
+  </si>
+  <si>
+    <t>L (39 - 39)</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>Offensive Rating</t>
+  </si>
+  <si>
+    <t>Defensive Rating</t>
+  </si>
+  <si>
+    <t>Combined Rating</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>Z2</t>
+  </si>
+  <si>
+    <t>AA2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,16 +483,67 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -293,11 +588,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -323,11 +799,1614 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="112">
+  <dxfs count="229">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1013,6 +3092,1095 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1813,19 +4981,102 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="987849" cy="846347"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB41E96-D899-5344-A674-93197FDF433E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12623800" y="84667"/>
+          <a:ext cx="987849" cy="846347"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>43472</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1374695" cy="945557"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DA5083E-A649-C547-9B79-CD14B27E2490}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43472" y="10583"/>
+          <a:ext cx="1374695" cy="945557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{05852B8E-D3D1-4699-94B0-02C57CD3F30C}" name="Table13" displayName="Table13" ref="A1:I12" totalsRowCount="1">
   <autoFilter ref="A1:I11" xr:uid="{9289FB7A-F9FE-47B2-A61A-372F1EAF4D76}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{AA6BA884-610A-4D3A-9BA3-AC4BF72A2D12}" name="Name" dataDxfId="111" totalsRowDxfId="110"/>
-    <tableColumn id="2" xr3:uid="{5CE23EA9-DF07-4069-B377-B7F710C710AB}" name="Turn Over Against" totalsRowFunction="sum" dataDxfId="109" totalsRowDxfId="108"/>
-    <tableColumn id="3" xr3:uid="{60998A3A-FD12-45BE-8E0F-6CA6A46F1922}" name="Turn Over For" totalsRowFunction="sum" dataDxfId="107" totalsRowDxfId="106"/>
-    <tableColumn id="4" xr3:uid="{2D44B2DC-2D19-480D-8640-CE05B901093D}" name="Assist" dataDxfId="105" totalsRowDxfId="104"/>
-    <tableColumn id="5" xr3:uid="{9DFE8A7A-54AB-4717-8698-291AAB9856A5}" name="Offensive Rebound" totalsRowFunction="sum" dataDxfId="103" totalsRowDxfId="102"/>
-    <tableColumn id="6" xr3:uid="{3999E7EE-6A85-48AD-B57E-2F8AC1021CCA}" name="Defensive Rebound" totalsRowFunction="sum" dataDxfId="101" totalsRowDxfId="100"/>
-    <tableColumn id="7" xr3:uid="{8A014509-2C8A-4D37-B309-C8890237CED5}" name="Missed Shot" dataDxfId="99" totalsRowDxfId="98"/>
-    <tableColumn id="8" xr3:uid="{33C3D598-DC99-420B-8568-24BEEF7C6DA6}" name="Points " totalsRowFunction="sum" dataDxfId="97" totalsRowDxfId="96"/>
-    <tableColumn id="9" xr3:uid="{78B2F709-F7E3-45F6-9C47-41AB43CB0594}" name="Charge" dataDxfId="95" totalsRowDxfId="94"/>
+    <tableColumn id="1" xr3:uid="{AA6BA884-610A-4D3A-9BA3-AC4BF72A2D12}" name="Name" dataDxfId="228" totalsRowDxfId="227"/>
+    <tableColumn id="2" xr3:uid="{5CE23EA9-DF07-4069-B377-B7F710C710AB}" name="Turn Over Against" totalsRowFunction="sum" dataDxfId="226" totalsRowDxfId="225"/>
+    <tableColumn id="3" xr3:uid="{60998A3A-FD12-45BE-8E0F-6CA6A46F1922}" name="Turn Over For" totalsRowFunction="sum" dataDxfId="224" totalsRowDxfId="223"/>
+    <tableColumn id="4" xr3:uid="{2D44B2DC-2D19-480D-8640-CE05B901093D}" name="Assist" dataDxfId="222" totalsRowDxfId="221"/>
+    <tableColumn id="5" xr3:uid="{9DFE8A7A-54AB-4717-8698-291AAB9856A5}" name="Offensive Rebound" totalsRowFunction="sum" dataDxfId="220" totalsRowDxfId="219"/>
+    <tableColumn id="6" xr3:uid="{3999E7EE-6A85-48AD-B57E-2F8AC1021CCA}" name="Defensive Rebound" totalsRowFunction="sum" dataDxfId="218" totalsRowDxfId="217"/>
+    <tableColumn id="7" xr3:uid="{8A014509-2C8A-4D37-B309-C8890237CED5}" name="Missed Shot" dataDxfId="216" totalsRowDxfId="215"/>
+    <tableColumn id="8" xr3:uid="{33C3D598-DC99-420B-8568-24BEEF7C6DA6}" name="Points " totalsRowFunction="sum" dataDxfId="214" totalsRowDxfId="213"/>
+    <tableColumn id="9" xr3:uid="{78B2F709-F7E3-45F6-9C47-41AB43CB0594}" name="Charge" dataDxfId="212" totalsRowDxfId="211"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1835,96 +5086,296 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F16541E9-F4D0-4E0C-953F-8F4CED52ADCF}" name="Table14" displayName="Table14" ref="A1:J12" totalsRowCount="1">
   <autoFilter ref="A1:J11" xr:uid="{9289FB7A-F9FE-47B2-A61A-372F1EAF4D76}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{BF7852A7-EE47-42B1-AFC3-5DA9EA0B43F4}" name="Name" dataDxfId="93" totalsRowDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{6D8F840F-1FD8-4F70-A75A-DFC592376595}" name="Turn Over Against" totalsRowFunction="sum" dataDxfId="91" totalsRowDxfId="90"/>
-    <tableColumn id="3" xr3:uid="{79BB64FF-054B-4D6E-9D61-65E1B448673E}" name="Turn Over For" totalsRowFunction="sum" dataDxfId="89" totalsRowDxfId="88"/>
-    <tableColumn id="4" xr3:uid="{F05B15FF-0C28-4645-B9EF-133539B90980}" name="Assist" dataDxfId="87" totalsRowDxfId="86"/>
-    <tableColumn id="5" xr3:uid="{BFB5D2F7-7540-42C1-A966-E3905416BF46}" name="Offensive Rebound" totalsRowFunction="sum" dataDxfId="85" totalsRowDxfId="84"/>
-    <tableColumn id="6" xr3:uid="{77BF0832-A5FA-4FF1-8C76-7AF0CB72762C}" name="Defensive Rebound" totalsRowFunction="sum" dataDxfId="83" totalsRowDxfId="82"/>
-    <tableColumn id="7" xr3:uid="{06DDF6B4-1B77-4856-98CC-EFD83DF6E5B2}" name="Missed Shot" dataDxfId="81" totalsRowDxfId="80"/>
-    <tableColumn id="8" xr3:uid="{FCC0C311-5A44-4F9E-B04D-B58825117959}" name="Points " totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="78"/>
-    <tableColumn id="9" xr3:uid="{8E22D9F1-16E4-469B-A05F-6D20F0E9EF5A}" name="Charge" dataDxfId="77" totalsRowDxfId="76"/>
-    <tableColumn id="10" xr3:uid="{7F37A549-1435-4AEF-BF64-6303B8509B73}" name="Column1" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="1" xr3:uid="{BF7852A7-EE47-42B1-AFC3-5DA9EA0B43F4}" name="Name" dataDxfId="210" totalsRowDxfId="209"/>
+    <tableColumn id="2" xr3:uid="{6D8F840F-1FD8-4F70-A75A-DFC592376595}" name="Turn Over Against" totalsRowFunction="sum" dataDxfId="208" totalsRowDxfId="207"/>
+    <tableColumn id="3" xr3:uid="{79BB64FF-054B-4D6E-9D61-65E1B448673E}" name="Turn Over For" totalsRowFunction="sum" dataDxfId="206" totalsRowDxfId="205"/>
+    <tableColumn id="4" xr3:uid="{F05B15FF-0C28-4645-B9EF-133539B90980}" name="Assist" dataDxfId="204" totalsRowDxfId="203"/>
+    <tableColumn id="5" xr3:uid="{BFB5D2F7-7540-42C1-A966-E3905416BF46}" name="Offensive Rebound" totalsRowFunction="sum" dataDxfId="202" totalsRowDxfId="201"/>
+    <tableColumn id="6" xr3:uid="{77BF0832-A5FA-4FF1-8C76-7AF0CB72762C}" name="Defensive Rebound" totalsRowFunction="sum" dataDxfId="200" totalsRowDxfId="199"/>
+    <tableColumn id="7" xr3:uid="{06DDF6B4-1B77-4856-98CC-EFD83DF6E5B2}" name="Missed Shot" dataDxfId="198" totalsRowDxfId="197"/>
+    <tableColumn id="8" xr3:uid="{FCC0C311-5A44-4F9E-B04D-B58825117959}" name="Points " totalsRowFunction="sum" dataDxfId="196" totalsRowDxfId="195"/>
+    <tableColumn id="9" xr3:uid="{8E22D9F1-16E4-469B-A05F-6D20F0E9EF5A}" name="Charge" dataDxfId="194" totalsRowDxfId="193"/>
+    <tableColumn id="10" xr3:uid="{7F37A549-1435-4AEF-BF64-6303B8509B73}" name="Column1" dataDxfId="192" totalsRowDxfId="191"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9289FB7A-F9FE-47B2-A61A-372F1EAF4D76}" name="Table1" displayName="Table1" ref="B1:Q12" totalsRowCount="1" headerRowDxfId="73" dataDxfId="72" totalsRowDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9289FB7A-F9FE-47B2-A61A-372F1EAF4D76}" name="Table1" displayName="Table1" ref="B1:Q12" totalsRowCount="1" headerRowDxfId="190" dataDxfId="189" totalsRowDxfId="188">
   <autoFilter ref="B1:Q11" xr:uid="{9289FB7A-F9FE-47B2-A61A-372F1EAF4D76}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{0DCCD737-2F9C-4C56-86D3-DACA3DEE46FC}" name="Name" dataDxfId="70" totalsRowDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{DBEF0010-AB5F-4DF4-AC96-4918E65AAACD}" name="Steals" totalsRowFunction="sum" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{0F3F0133-2FB2-4560-9F4E-C3D896C1BB7F}" name="Turnovers" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{05780724-50A5-42AF-A1DA-DD5A3B2A0E75}" name="Assists" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{7D06BD51-A418-4946-8446-3509CE2B3715}" name="Rebound (Offensive)" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{25937FB4-F0BC-4F8C-A877-18164AF278F4}" name="Rebound (Defensive)" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="12" xr3:uid="{24DED43B-9596-FD48-9633-A77446C30730}" name="Charge (Offensive)" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="9" xr3:uid="{C57A2772-D739-4048-BE6A-B95F004F3075}" name="Charge (Defensive)" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{C483B6DC-9770-48B2-B3D6-72FEC401E36B}" name="Field Goal (A)" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="13" xr3:uid="{D9550862-C9B5-CE41-A383-E5A68FACA7FC}" name="Three Pointer (A)" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="11" xr3:uid="{4539A49F-5AF0-2B4F-9B72-C30D9E6818FF}" name="Foul Shot (A)" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="14" xr3:uid="{61DD41EA-CDE9-0D42-A513-0984770BC717}" name="Field Goal (M)" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="15" xr3:uid="{ABD214C3-15A0-3744-8411-053D73CE7FFF}" name="Three Pointer (M)" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="16" xr3:uid="{FBED477F-0BD5-3240-A619-E25159176C13}" name="Foul Shot (M)" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{0B1A8243-3F3E-4C68-B5A6-2F6DE6001A27}" name="Points " totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="10" xr3:uid="{AB9781F0-EF91-43B8-A406-38C09F69BCCA}" name="Notes" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{0DCCD737-2F9C-4C56-86D3-DACA3DEE46FC}" name="Name" dataDxfId="187" totalsRowDxfId="186"/>
+    <tableColumn id="2" xr3:uid="{DBEF0010-AB5F-4DF4-AC96-4918E65AAACD}" name="Steals" totalsRowFunction="sum" dataDxfId="185" totalsRowDxfId="184"/>
+    <tableColumn id="3" xr3:uid="{0F3F0133-2FB2-4560-9F4E-C3D896C1BB7F}" name="Turnovers" totalsRowFunction="sum" dataDxfId="183" totalsRowDxfId="182"/>
+    <tableColumn id="4" xr3:uid="{05780724-50A5-42AF-A1DA-DD5A3B2A0E75}" name="Assists" dataDxfId="181" totalsRowDxfId="180"/>
+    <tableColumn id="5" xr3:uid="{7D06BD51-A418-4946-8446-3509CE2B3715}" name="Rebound (Offensive)" totalsRowFunction="sum" dataDxfId="179" totalsRowDxfId="178"/>
+    <tableColumn id="6" xr3:uid="{25937FB4-F0BC-4F8C-A877-18164AF278F4}" name="Rebound (Defensive)" totalsRowFunction="sum" dataDxfId="177" totalsRowDxfId="176"/>
+    <tableColumn id="12" xr3:uid="{24DED43B-9596-FD48-9633-A77446C30730}" name="Charge (Offensive)" dataDxfId="175" totalsRowDxfId="174"/>
+    <tableColumn id="9" xr3:uid="{C57A2772-D739-4048-BE6A-B95F004F3075}" name="Charge (Defensive)" dataDxfId="173" totalsRowDxfId="172"/>
+    <tableColumn id="7" xr3:uid="{C483B6DC-9770-48B2-B3D6-72FEC401E36B}" name="Field Goal (A)" dataDxfId="171" totalsRowDxfId="170"/>
+    <tableColumn id="13" xr3:uid="{D9550862-C9B5-CE41-A383-E5A68FACA7FC}" name="Three Pointer (A)" dataDxfId="169" totalsRowDxfId="168"/>
+    <tableColumn id="11" xr3:uid="{4539A49F-5AF0-2B4F-9B72-C30D9E6818FF}" name="Foul Shot (A)" dataDxfId="167" totalsRowDxfId="166"/>
+    <tableColumn id="14" xr3:uid="{61DD41EA-CDE9-0D42-A513-0984770BC717}" name="Field Goal (M)" dataDxfId="165" totalsRowDxfId="164"/>
+    <tableColumn id="15" xr3:uid="{ABD214C3-15A0-3744-8411-053D73CE7FFF}" name="Three Pointer (M)" dataDxfId="163" totalsRowDxfId="162"/>
+    <tableColumn id="16" xr3:uid="{FBED477F-0BD5-3240-A619-E25159176C13}" name="Foul Shot (M)" dataDxfId="161" totalsRowDxfId="160"/>
+    <tableColumn id="8" xr3:uid="{0B1A8243-3F3E-4C68-B5A6-2F6DE6001A27}" name="Points " totalsRowFunction="sum" dataDxfId="159" totalsRowDxfId="158"/>
+    <tableColumn id="10" xr3:uid="{AB9781F0-EF91-43B8-A406-38C09F69BCCA}" name="Notes" dataDxfId="157" totalsRowDxfId="156"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0A5F5190-7923-AA47-94BD-06EB5CE9D4CF}" name="Table15" displayName="Table15" ref="A1:R12" totalsRowCount="1" headerRowDxfId="38" dataDxfId="37" totalsRowDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C571630C-8A0C-4D12-93A5-4224DE4EDDB9}" name="Table156" displayName="Table156" ref="A1:AA12" totalsRowCount="1" headerRowDxfId="155" dataDxfId="154" totalsRowDxfId="153">
+  <autoFilter ref="A1:AA11" xr:uid="{9289FB7A-F9FE-47B2-A61A-372F1EAF4D76}"/>
+  <tableColumns count="27">
+    <tableColumn id="1" xr3:uid="{BF240C73-DB34-494C-8ABC-E40C5C7E1BEF}" name="#" totalsRowLabel="TOTAL" dataDxfId="152" totalsRowDxfId="61"/>
+    <tableColumn id="17" xr3:uid="{00CA8172-9C3B-4322-B43A-9391C665ECA1}" name="Name" dataDxfId="151" totalsRowDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{33E1CF54-E342-46C6-B58D-B6854F1B5830}" name="Steals" totalsRowFunction="custom" dataDxfId="150" totalsRowDxfId="59">
+      <totalsRowFormula>SUM(Table156[Steals])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{A8CB6AE6-217B-4824-90AF-6BF6FB56AEEE}" name="Turnovers" totalsRowFunction="custom" dataDxfId="149" totalsRowDxfId="58">
+      <totalsRowFormula>SUM(Table156[Turnovers])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{BDF4BCC1-F931-42FF-BFD9-0FA30C82AAD1}" name="Assists" totalsRowFunction="custom" dataDxfId="148" totalsRowDxfId="57">
+      <totalsRowFormula>SUM(Table156[Assists])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{1E7879B2-A4D5-48ED-ACF6-0E2012E5C94E}" name="Rebound (Offensive)" totalsRowFunction="custom" dataDxfId="147" totalsRowDxfId="56">
+      <totalsRowFormula>SUM(Table156[Rebound (Offensive)])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{97A429D4-DA85-4D4F-9793-25A62728EEAD}" name="Rebound (Defensive)" totalsRowFunction="custom" dataDxfId="146" totalsRowDxfId="55">
+      <totalsRowFormula>SUM(Table156[Rebound (Defensive)])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{67428B3D-24ED-4077-9237-8AEAA93B5EF8}" name="Charge (Offensive)" totalsRowFunction="custom" dataDxfId="145" totalsRowDxfId="54">
+      <totalsRowFormula>SUM(Table156[Charge (Offensive)])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{6CD39AC9-082A-44B2-9C72-EE2F3FC07269}" name="Charge (Defensive)" totalsRowFunction="custom" dataDxfId="144" totalsRowDxfId="53">
+      <totalsRowFormula>SUM(Table156[Charge (Defensive)])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{13E80339-C032-4E38-98CE-3CB44EC0C04E}" name="Foul Shot (A)" totalsRowFunction="custom" dataDxfId="143" totalsRowDxfId="52">
+      <totalsRowFormula>SUM(Table156[Foul Shot (A)])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{B0FEBAAF-BE4F-4F4A-B0F0-E30F55A359AB}" name="Field Goal (A)" totalsRowFunction="custom" dataDxfId="142" totalsRowDxfId="51">
+      <totalsRowFormula>SUM(Table156[Field Goal (A)])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{2C613005-7D73-40AD-8BB4-191329983311}" name="Three Pointer (A)" totalsRowFunction="custom" dataDxfId="141" totalsRowDxfId="50">
+      <totalsRowFormula>SUM(Table156[Three Pointer (A)])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{56A447A0-290A-4B55-8F90-D1965191B83F}" name="Foul Shot (M)" totalsRowFunction="custom" dataDxfId="140" totalsRowDxfId="49">
+      <totalsRowFormula>SUM(Table156[Foul Shot (M)])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{003E81BB-BD8D-4A6E-A7A8-DAD4D54D9A68}" name="Field Goal (M)" totalsRowFunction="custom" dataDxfId="139" totalsRowDxfId="48">
+      <totalsRowFormula>SUM(Table156[Field Goal (M)])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{DC52420E-8BE3-45A8-9CE9-BF658E7998DC}" name="Three Pointer (M)" totalsRowFunction="custom" dataDxfId="138" totalsRowDxfId="47">
+      <totalsRowFormula>SUM(Table156[Three Pointer (M)])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{FE8A99A6-9365-44B5-9E79-2B4E90963406}" name="Points " totalsRowFunction="custom" dataDxfId="137" totalsRowDxfId="46">
+      <calculatedColumnFormula>(Table156[[#This Row],[Field Goal (M)]]*2)+(Table156[[#This Row],[Three Pointer (M)]]*3)+Table156[[#This Row],[Foul Shot (M)]]</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Table156[[Points ]])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{28658326-BB82-4508-9B6B-2CF4E09B6C3F}" name="Fouls" totalsRowFunction="custom" dataDxfId="136" totalsRowDxfId="45">
+      <totalsRowFormula>SUM(Table156[Fouls])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{070A848B-D260-1448-9B6E-F9146423A0F4}" name="Foul Shot (%)" totalsRowFunction="custom" dataDxfId="135" totalsRowDxfId="44" dataCellStyle="Per cent">
+      <calculatedColumnFormula>IFERROR(Table156[[#This Row],[Foul Shot (M)]]/Table156[[#This Row],[Foul Shot (A)]],0)</calculatedColumnFormula>
+      <totalsRowFormula>Table156[[#Totals],[Foul Shot (M)]]/Table156[[#Totals],[Foul Shot (A)]]</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{02D4741E-B5CE-6A48-9465-A37A8EFDE0DC}" name="Field Goal (%)" totalsRowFunction="custom" dataDxfId="134" totalsRowDxfId="43" dataCellStyle="Per cent">
+      <calculatedColumnFormula>IFERROR(Table156[[#This Row],[Field Goal (M)]]/Table156[[#This Row],[Field Goal (A)]],0)</calculatedColumnFormula>
+      <totalsRowFormula>Table156[[#Totals],[Field Goal (M)]]/Table156[[#Totals],[Field Goal (A)]]</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="21" xr3:uid="{017A5119-2DEC-944D-93A0-E095BF61DD15}" name="Three Pointer (%)" totalsRowFunction="custom" dataDxfId="133" totalsRowDxfId="42" dataCellStyle="Per cent">
+      <calculatedColumnFormula>IFERROR(Table156[[#This Row],[Three Pointer (M)]]/Table156[[#This Row],[Three Pointer (A)]],0)</calculatedColumnFormula>
+      <totalsRowFormula>Table156[[#Totals],[Three Pointer (M)]]/Table156[[#Totals],[Three Pointer (A)]]</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{EF1E76F8-1598-440D-8D26-1AA99EA6AE30}" name="Notes" dataDxfId="132" totalsRowDxfId="41" dataCellStyle="Per cent"/>
+    <tableColumn id="22" xr3:uid="{F7281873-0D69-2445-9FFB-23105C6C9BAF}" name="Foul Shot (A)2" dataDxfId="131" totalsRowDxfId="40">
+      <calculatedColumnFormula>Table156[[#This Row],[Foul Shot (A)]]+Table156[[#This Row],[Foul Shot (M)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" xr3:uid="{B13CFB8E-D24B-7C44-A3C2-4213C74BE24A}" name="Field Goal (A)3" dataDxfId="130" totalsRowDxfId="39">
+      <calculatedColumnFormula>Table156[[#This Row],[Field Goal (A)]]+Table156[[#This Row],[Field Goal (M)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" xr3:uid="{AC3BE468-0C00-9D4A-8811-62F0DB0F68B5}" name="Three Pointer (A)4" dataDxfId="30" totalsRowDxfId="38">
+      <calculatedColumnFormula>SUM(Table156[[#This Row],[Three Pointer (A)]]+Table156[[#This Row],[Three Pointer (M)]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="25" xr3:uid="{FF6EE25A-19AC-9044-8204-C7063253A29B}" name="Offensive Rating" dataDxfId="29" totalsRowDxfId="37">
+      <calculatedColumnFormula xml:space="preserve"> (0.5*P2)
+  + (2*E2)
+  + (3*F2)
+  + (1*H2)
+  + (2*J2)
+  - (1*D2)
+  + IF(S2&gt;0.4, (S2-0.4)*10, 0)
+  + IF(T2&gt;0.3, (T2-0.3)*10, 0)
+  + IF(R2&gt;0.7, (R2-0.7)*5, 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="26" xr3:uid="{454F6FD1-B76A-B846-BFB7-07F6647D58A1}" name="Defensive Rating" dataDxfId="28" totalsRowDxfId="36">
+      <calculatedColumnFormula xml:space="preserve"> (3*C2)
+  + (2*G2)
+  + (2*I2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="27" xr3:uid="{4645EF25-481D-7B43-AC17-89BD6BA8E4AE}" name="Combined Rating" dataDxfId="27" totalsRowDxfId="35">
+      <calculatedColumnFormula xml:space="preserve"> Y2
+  + Z2
+  - IF(Q2&lt;4, 0, IF(Q2=4, 1, 3))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{472B7DB2-F623-5E4D-BE8A-F09D2C058742}" name="Table1567" displayName="Table1567" ref="A1:AA12" totalsRowCount="1" headerRowDxfId="129" dataDxfId="128" totalsRowDxfId="127">
+  <autoFilter ref="A1:AA11" xr:uid="{9289FB7A-F9FE-47B2-A61A-372F1EAF4D76}"/>
+  <tableColumns count="27">
+    <tableColumn id="1" xr3:uid="{C575C205-F231-4644-AA41-11177BFEC484}" name="#" totalsRowLabel="TOTAL" dataDxfId="126" totalsRowDxfId="26"/>
+    <tableColumn id="17" xr3:uid="{EF1C1221-5AFA-844D-9D88-B6561201FD61}" name="Name" dataDxfId="125" totalsRowDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{9896CC92-DA81-1541-9916-C93795F39518}" name="Steals" totalsRowFunction="custom" dataDxfId="124" totalsRowDxfId="24">
+      <totalsRowFormula>SUM(Table1567[Steals])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{ED0E3991-F3E8-C74C-9C50-8BEDCD7DD8E3}" name="Turnovers" totalsRowFunction="custom" dataDxfId="123" totalsRowDxfId="23">
+      <totalsRowFormula>SUM(Table1567[Turnovers])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{76B829E8-C210-E548-A563-BC720211A5C8}" name="Assists" totalsRowFunction="custom" dataDxfId="122" totalsRowDxfId="22">
+      <totalsRowFormula>SUM(Table1567[Assists])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{B4F28D1D-02D2-4549-8B10-6530C44F982E}" name="Rebound (Offensive)" totalsRowFunction="custom" dataDxfId="121" totalsRowDxfId="21">
+      <totalsRowFormula>SUM(Table1567[Rebound (Offensive)])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{CF1E7D84-4175-0E4C-B420-8A262D3EF997}" name="Rebound (Defensive)" totalsRowFunction="custom" dataDxfId="120" totalsRowDxfId="20">
+      <totalsRowFormula>SUM(Table1567[Rebound (Defensive)])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{5B8A7688-3CB4-AC47-8F19-9C5937E9D56F}" name="Charge (Offensive)" totalsRowFunction="custom" dataDxfId="119" totalsRowDxfId="19">
+      <totalsRowFormula>SUM(Table1567[Charge (Offensive)])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{E29229C6-AA43-814D-86AA-C34621FC9DCA}" name="Charge (Defensive)" totalsRowFunction="custom" dataDxfId="118" totalsRowDxfId="18">
+      <totalsRowFormula>SUM(Table1567[Charge (Defensive)])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{024C6AD1-F452-B04F-A89F-C425DB2FF1F7}" name="Foul Shot (A)" totalsRowFunction="custom" dataDxfId="117" totalsRowDxfId="17">
+      <totalsRowFormula>SUM(Table1567[Foul Shot (A)])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{311CA17E-EA3C-7447-9141-3860FA178E30}" name="Field Goal (A)" totalsRowFunction="custom" dataDxfId="116" totalsRowDxfId="16">
+      <totalsRowFormula>SUM(Table1567[Field Goal (A)])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{C1FD786A-F593-1D45-93A5-5EC7CDA18028}" name="Three Pointer (A)" totalsRowFunction="custom" dataDxfId="115" totalsRowDxfId="15">
+      <totalsRowFormula>SUM(Table1567[Three Pointer (A)])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{DE16D232-C00A-4044-BBD0-E87960B64098}" name="Foul Shot (M)" totalsRowFunction="custom" dataDxfId="114" totalsRowDxfId="14">
+      <totalsRowFormula>SUM(Table1567[Foul Shot (M)])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{FE195FB6-7F07-F54B-8D35-F7CE471D17D9}" name="Field Goal (M)" totalsRowFunction="custom" dataDxfId="113" totalsRowDxfId="13">
+      <totalsRowFormula>SUM(Table1567[Field Goal (M)])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{72CC2E53-2C37-6948-A592-CDD1DE1E3449}" name="Three Pointer (M)" totalsRowFunction="custom" dataDxfId="112" totalsRowDxfId="12">
+      <totalsRowFormula>SUM(Table1567[Three Pointer (M)])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{015277DE-EB0F-3D41-AED3-D37613BDDF0D}" name="Points " totalsRowFunction="custom" dataDxfId="111" totalsRowDxfId="11">
+      <calculatedColumnFormula>(Table1567[[#This Row],[Field Goal (M)]]*2)+(Table1567[[#This Row],[Three Pointer (M)]]*3)+Table1567[[#This Row],[Foul Shot (M)]]</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Table1567[[Points ]])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{CB525E76-B62D-C743-A87E-3198787B09BC}" name="Fouls" totalsRowFunction="custom" dataDxfId="110" totalsRowDxfId="10">
+      <totalsRowFormula>SUM(Table1567[Fouls])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{7DA4741F-FA64-1B4B-9762-2362460FA26B}" name="Foul Shot (%)" totalsRowFunction="custom" dataDxfId="109" totalsRowDxfId="9">
+      <calculatedColumnFormula>IFERROR(Table1567[[#This Row],[Foul Shot (M)]]/Table1567[[#This Row],[Foul Shot (A)]],0)</calculatedColumnFormula>
+      <totalsRowFormula>Table1567[[#Totals],[Foul Shot (M)]]/Table1567[[#Totals],[Foul Shot (A)]]</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{67F6106E-3741-6949-B379-20BFE0AAB1F1}" name="Field Goal (%)" totalsRowFunction="custom" dataDxfId="108" totalsRowDxfId="8">
+      <calculatedColumnFormula>IFERROR(Table1567[[#This Row],[Field Goal (M)]]/Table1567[[#This Row],[Field Goal (A)]],0)</calculatedColumnFormula>
+      <totalsRowFormula>Table1567[[#Totals],[Field Goal (M)]]/Table1567[[#Totals],[Field Goal (A)]]</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="21" xr3:uid="{FBEA87BF-43C6-8E49-A3E4-25BAF10B7C96}" name="Three Pointer (%)" totalsRowFunction="custom" dataDxfId="107" totalsRowDxfId="7" dataCellStyle="Per cent">
+      <calculatedColumnFormula>IFERROR(Table1567[[#This Row],[Three Pointer (M)]]/Table1567[[#This Row],[Three Pointer (A)]],0)</calculatedColumnFormula>
+      <totalsRowFormula>Table1567[[#Totals],[Three Pointer (M)]]/Table1567[[#Totals],[Three Pointer (A)]]</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{BAD9A110-2F95-914E-9FDC-62B5D1F5082C}" name="Notes" dataDxfId="106" totalsRowDxfId="6"/>
+    <tableColumn id="22" xr3:uid="{5898A258-E89D-A64D-8F00-ED77F1863EBD}" name="Foul Shot (A)2" dataDxfId="105" totalsRowDxfId="5">
+      <calculatedColumnFormula>SUM(Table1567[[#This Row],[Foul Shot (A)]]+Table1567[[#This Row],[Foul Shot (M)]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" xr3:uid="{770FCC57-201F-834A-8039-4E42E0097422}" name="Field Goal (A)3" dataDxfId="104" totalsRowDxfId="4">
+      <calculatedColumnFormula>SUM(Table1567[[#This Row],[Field Goal (A)]]+Table1567[[#This Row],[Field Goal (M)]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" xr3:uid="{C73B3A29-80C9-C64B-A564-88EBF6A57CEB}" name="Three Pointer (A)4" dataDxfId="34" totalsRowDxfId="3">
+      <calculatedColumnFormula>SUM(Table1567[[#This Row],[Three Pointer (A)]]+Table1567[[#This Row],[Three Pointer (M)]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="25" xr3:uid="{867573E3-D54E-AB4B-AF01-52B998C3ED0D}" name="Offensive Rating" dataDxfId="33" totalsRowDxfId="2">
+      <calculatedColumnFormula xml:space="preserve"> (0.5*P2)
+  + (2*E2)
+  + (3*F2)
+  + (1*H2)
+  + (2*J2)
+  - (1*D2)
+  + IF(S2&gt;0.4, (S2-0.4)*10, 0)
+  + IF(T2&gt;0.3, (T2-0.3)*10, 0)
+  + IF(R2&gt;0.7, (R2-0.7)*5, 0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="26" xr3:uid="{9C8F25AA-7FA3-4D41-A176-419DB348A506}" name="Defensive Rating" dataDxfId="32" totalsRowDxfId="1">
+      <calculatedColumnFormula xml:space="preserve"> (3*C2)
+  + (2*G2)
+  + (2*I2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="27" xr3:uid="{855C0521-8574-3A41-96A6-A5CEDE6265FB}" name="Combined Rating" dataDxfId="31" totalsRowDxfId="0">
+      <calculatedColumnFormula xml:space="preserve"> Y2
+  + Z2
+  - IF(Q2&lt;4, 0, IF(Q2=4, 1, 3))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0A5F5190-7923-AA47-94BD-06EB5CE9D4CF}" name="Table15" displayName="Table15" ref="A1:R12" totalsRowCount="1" headerRowDxfId="103" dataDxfId="102" totalsRowDxfId="101">
   <autoFilter ref="A1:R11" xr:uid="{9289FB7A-F9FE-47B2-A61A-372F1EAF4D76}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{62D4EE4D-C20B-864B-9187-DDCFE82FE18B}" name="#" totalsRowLabel="TOTAL" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="17" xr3:uid="{8D5F1A19-007B-7147-AF72-3693ED107653}" name="Name" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{AFEC4163-23CE-794F-8411-5EBE02F3314C}" name="Steals" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="1" xr3:uid="{62D4EE4D-C20B-864B-9187-DDCFE82FE18B}" name="#" totalsRowLabel="TOTAL" dataDxfId="100" totalsRowDxfId="99"/>
+    <tableColumn id="17" xr3:uid="{8D5F1A19-007B-7147-AF72-3693ED107653}" name="Name" dataDxfId="98" totalsRowDxfId="97"/>
+    <tableColumn id="2" xr3:uid="{AFEC4163-23CE-794F-8411-5EBE02F3314C}" name="Steals" totalsRowFunction="custom" dataDxfId="96" totalsRowDxfId="95">
       <totalsRowFormula>SUM(Table15[Steals])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{55C71104-A5CC-5B4A-85AD-CDDDFFFC9E0B}" name="Turnovers" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="3" xr3:uid="{55C71104-A5CC-5B4A-85AD-CDDDFFFC9E0B}" name="Turnovers" totalsRowFunction="custom" dataDxfId="94" totalsRowDxfId="93">
       <totalsRowFormula>SUM(Table15[Turnovers])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{0A5F08E2-08E5-224B-8899-3BAA76F29F03}" name="Assists" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="4" xr3:uid="{0A5F08E2-08E5-224B-8899-3BAA76F29F03}" name="Assists" totalsRowFunction="custom" dataDxfId="92" totalsRowDxfId="91">
       <totalsRowFormula>SUM(Table15[Assists])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4637DF51-6285-274D-AE77-A78C08833436}" name="Rebound (Offensive)" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="5" xr3:uid="{4637DF51-6285-274D-AE77-A78C08833436}" name="Rebound (Offensive)" totalsRowFunction="custom" dataDxfId="90" totalsRowDxfId="89">
       <totalsRowFormula>SUM(Table15[Rebound (Offensive)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F5E9E444-BC58-F240-953D-4F06EEDC88E8}" name="Rebound (Defensive)" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="6" xr3:uid="{F5E9E444-BC58-F240-953D-4F06EEDC88E8}" name="Rebound (Defensive)" totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="87">
       <totalsRowFormula>SUM(Table15[Rebound (Defensive)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{4D352443-4EDA-844C-8833-71848E9987A7}" name="Charge (Offensive)" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="12" xr3:uid="{4D352443-4EDA-844C-8833-71848E9987A7}" name="Charge (Offensive)" totalsRowFunction="custom" dataDxfId="86" totalsRowDxfId="85">
       <totalsRowFormula>SUM(Table15[Charge (Offensive)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{BDA422A5-F0F2-E347-8342-676DF7B0AE26}" name="Charge (Defensive)" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="9" xr3:uid="{BDA422A5-F0F2-E347-8342-676DF7B0AE26}" name="Charge (Defensive)" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="83">
       <totalsRowFormula>SUM(Table15[Charge (Defensive)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{71017EB4-69AC-CC43-9505-3DCF1281384D}" name="Field Goal (A)" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="7" xr3:uid="{71017EB4-69AC-CC43-9505-3DCF1281384D}" name="Field Goal (A)" totalsRowFunction="custom" dataDxfId="82" totalsRowDxfId="81">
       <totalsRowFormula>SUM(Table15[Field Goal (A)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{7A81D1F6-F704-CB47-A5C6-32B2A8CC83BD}" name="Three Pointer (A)" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="13" xr3:uid="{7A81D1F6-F704-CB47-A5C6-32B2A8CC83BD}" name="Three Pointer (A)" totalsRowFunction="custom" dataDxfId="80" totalsRowDxfId="79">
       <totalsRowFormula>SUM(Table15[Three Pointer (A)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{C9C5C64D-B6D2-0F43-B742-81C7D92AD0D7}" name="Foul Shot (A)" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="11" xr3:uid="{C9C5C64D-B6D2-0F43-B742-81C7D92AD0D7}" name="Foul Shot (A)" totalsRowFunction="custom" dataDxfId="78" totalsRowDxfId="77">
       <totalsRowFormula>SUM(Table15[Foul Shot (A)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{BCB58A41-91E6-D644-8402-3BEE1D301972}" name="Field Goal (M)" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="14" xr3:uid="{BCB58A41-91E6-D644-8402-3BEE1D301972}" name="Field Goal (M)" totalsRowFunction="custom" dataDxfId="76" totalsRowDxfId="75">
       <totalsRowFormula>SUM(Table15[Field Goal (M)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{3427C1D8-11B9-C448-8CFC-73CBE605A5BD}" name="Three Pointer (M)" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="15" xr3:uid="{3427C1D8-11B9-C448-8CFC-73CBE605A5BD}" name="Three Pointer (M)" totalsRowFunction="custom" dataDxfId="74" totalsRowDxfId="73">
       <totalsRowFormula>SUM(Table15[Three Pointer (M)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{9485E5E0-7533-B04C-BA17-A3336F51A3F7}" name="Foul Shot (M)" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="16" xr3:uid="{9485E5E0-7533-B04C-BA17-A3336F51A3F7}" name="Foul Shot (M)" totalsRowFunction="custom" dataDxfId="72" totalsRowDxfId="71">
       <totalsRowFormula>SUM(Table15[Foul Shot (M)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5A66CC86-7A2A-F946-9EB5-BE2F1815C28E}" name="Points " totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="8" xr3:uid="{5A66CC86-7A2A-F946-9EB5-BE2F1815C28E}" name="Points " totalsRowFunction="custom" dataDxfId="70" totalsRowDxfId="69">
       <totalsRowFormula>SUM(Table15[[Points ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{770C0366-2674-CE42-9626-8FC9CBE2DD4A}" name="Fouls" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{6C63BB21-597E-DE46-8756-211705B4DCC1}" name="Notes" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="18" xr3:uid="{770C0366-2674-CE42-9626-8FC9CBE2DD4A}" name="Fouls" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="10" xr3:uid="{6C63BB21-597E-DE46-8756-211705B4DCC1}" name="Notes" dataDxfId="66" totalsRowDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2251,7 +5702,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
@@ -2548,10 +5999,10 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
@@ -2855,11 +6306,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="97" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:G29"/>
+    <sheetView zoomScale="97" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="20" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="1" bestFit="1" customWidth="1"/>
@@ -2880,7 +6331,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2895,40 +6346,40 @@
         <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R1" s="1"/>
     </row>
@@ -3265,11 +6716,11 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:19" ht="19" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:19" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -3301,14 +6752,3663 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73283D2D-9808-4BF3-B4CB-F51D2FD3F78D}">
+  <dimension ref="A1:AA43"/>
+  <sheetViews>
+    <sheetView zoomScale="97" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AA2" sqref="AA2:AA11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="11" customWidth="1"/>
+    <col min="3" max="12" width="14.33203125" style="11"/>
+    <col min="14" max="16" width="14.33203125" style="11"/>
+    <col min="19" max="19" width="14.33203125" style="11"/>
+    <col min="20" max="21" width="14.33203125" style="16"/>
+    <col min="22" max="16384" width="14.33203125" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="20" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="X1" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA1" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="5">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="23">
+        <v>2</v>
+      </c>
+      <c r="G2" s="24">
+        <v>5</v>
+      </c>
+      <c r="H2" s="23">
+        <v>0</v>
+      </c>
+      <c r="I2" s="24">
+        <v>0</v>
+      </c>
+      <c r="J2" s="23">
+        <v>4</v>
+      </c>
+      <c r="K2" s="5">
+        <v>5</v>
+      </c>
+      <c r="L2" s="24">
+        <v>2</v>
+      </c>
+      <c r="M2" s="23">
+        <v>2</v>
+      </c>
+      <c r="N2" s="5">
+        <v>2</v>
+      </c>
+      <c r="O2" s="24">
+        <v>1</v>
+      </c>
+      <c r="P2" s="5">
+        <f>(Table156[[#This Row],[Field Goal (M)]]*2)+(Table156[[#This Row],[Three Pointer (M)]]*3)+Table156[[#This Row],[Foul Shot (M)]]</f>
+        <v>9</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>4</v>
+      </c>
+      <c r="R2" s="39">
+        <f>IFERROR(Table156[[#This Row],[Foul Shot (M)]]/Table156[[#This Row],[Foul Shot (A)]],0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="S2" s="40">
+        <f>IFERROR(Table156[[#This Row],[Field Goal (M)]]/Table156[[#This Row],[Field Goal (A)]],0)</f>
+        <v>0.4</v>
+      </c>
+      <c r="T2" s="31">
+        <f>IFERROR(Table156[[#This Row],[Three Pointer (M)]]/Table156[[#This Row],[Three Pointer (A)]],0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U2" s="5"/>
+      <c r="V2" s="41">
+        <f>Table156[[#This Row],[Foul Shot (A)]]+Table156[[#This Row],[Foul Shot (M)]]</f>
+        <v>6</v>
+      </c>
+      <c r="W2" s="41">
+        <f>Table156[[#This Row],[Field Goal (A)]]+Table156[[#This Row],[Field Goal (M)]]</f>
+        <v>7</v>
+      </c>
+      <c r="X2" s="41">
+        <f>SUM(Table156[[#This Row],[Three Pointer (A)]]+Table156[[#This Row],[Three Pointer (M)]])</f>
+        <v>3</v>
+      </c>
+      <c r="Y2" s="63">
+        <f t="shared" ref="Y2:Y11" si="0" xml:space="preserve"> (0.5*P2)
+  + (2*E2)
+  + (3*F2)
+  + (1*H2)
+  + (2*J2)
+  - (1*D2)
+  + IF(S2&gt;0.4, (S2-0.4)*10, 0)
+  + IF(T2&gt;0.3, (T2-0.3)*10, 0)
+  + IF(R2&gt;0.7, (R2-0.7)*5, 0)</f>
+        <v>18.5</v>
+      </c>
+      <c r="Z2" s="63">
+        <f t="shared" ref="Z2:Z11" si="1" xml:space="preserve"> (3*C2)
+  + (2*G2)
+  + (2*I2)</f>
+        <v>22</v>
+      </c>
+      <c r="AA2" s="63">
+        <f t="shared" ref="AA2:AA11" si="2" xml:space="preserve"> Y2
+  + Z2
+  - IF(Q2&lt;4, 0, IF(Q2=4, 1, 3))</f>
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="23">
+        <v>2</v>
+      </c>
+      <c r="G3" s="24">
+        <v>0</v>
+      </c>
+      <c r="H3" s="23">
+        <v>0</v>
+      </c>
+      <c r="I3" s="24">
+        <v>0</v>
+      </c>
+      <c r="J3" s="23">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="24">
+        <v>0</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="24">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <f>(Table156[[#This Row],[Field Goal (M)]]*2)+(Table156[[#This Row],[Three Pointer (M)]]*3)+Table156[[#This Row],[Foul Shot (M)]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>3</v>
+      </c>
+      <c r="R3" s="39">
+        <f>IFERROR(Table156[[#This Row],[Foul Shot (M)]]/Table156[[#This Row],[Foul Shot (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="40">
+        <f>IFERROR(Table156[[#This Row],[Field Goal (M)]]/Table156[[#This Row],[Field Goal (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="31">
+        <f>IFERROR(Table156[[#This Row],[Three Pointer (M)]]/Table156[[#This Row],[Three Pointer (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="5"/>
+      <c r="V3" s="41">
+        <f>Table156[[#This Row],[Foul Shot (A)]]+Table156[[#This Row],[Foul Shot (M)]]</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="41">
+        <f>Table156[[#This Row],[Field Goal (A)]]+Table156[[#This Row],[Field Goal (M)]]</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="41">
+        <f>SUM(Table156[[#This Row],[Three Pointer (A)]]+Table156[[#This Row],[Three Pointer (M)]])</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="63">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Z3" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="63">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="23">
+        <v>2</v>
+      </c>
+      <c r="G4" s="24">
+        <v>3</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0</v>
+      </c>
+      <c r="I4" s="24">
+        <v>0</v>
+      </c>
+      <c r="J4" s="23">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+      <c r="L4" s="24">
+        <v>0</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1</v>
+      </c>
+      <c r="O4" s="24">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <f>(Table156[[#This Row],[Field Goal (M)]]*2)+(Table156[[#This Row],[Three Pointer (M)]]*3)+Table156[[#This Row],[Foul Shot (M)]]</f>
+        <v>2</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>1</v>
+      </c>
+      <c r="R4" s="39">
+        <f>IFERROR(Table156[[#This Row],[Foul Shot (M)]]/Table156[[#This Row],[Foul Shot (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="40">
+        <f>IFERROR(Table156[[#This Row],[Field Goal (M)]]/Table156[[#This Row],[Field Goal (A)]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="T4" s="31">
+        <f>IFERROR(Table156[[#This Row],[Three Pointer (M)]]/Table156[[#This Row],[Three Pointer (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="5"/>
+      <c r="V4" s="41">
+        <f>Table156[[#This Row],[Foul Shot (A)]]+Table156[[#This Row],[Foul Shot (M)]]</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="41">
+        <f>Table156[[#This Row],[Field Goal (A)]]+Table156[[#This Row],[Field Goal (M)]]</f>
+        <v>2</v>
+      </c>
+      <c r="X4" s="41">
+        <f>SUM(Table156[[#This Row],[Three Pointer (A)]]+Table156[[#This Row],[Three Pointer (M)]])</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="63">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Z4" s="63">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AA4" s="63">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="23">
+        <v>0</v>
+      </c>
+      <c r="G5" s="24">
+        <v>1</v>
+      </c>
+      <c r="H5" s="23">
+        <v>0</v>
+      </c>
+      <c r="I5" s="24">
+        <v>0</v>
+      </c>
+      <c r="J5" s="23">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>3</v>
+      </c>
+      <c r="L5" s="24">
+        <v>0</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="24">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <f>(Table156[[#This Row],[Field Goal (M)]]*2)+(Table156[[#This Row],[Three Pointer (M)]]*3)+Table156[[#This Row],[Foul Shot (M)]]</f>
+        <v>2</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>1</v>
+      </c>
+      <c r="R5" s="39">
+        <f>IFERROR(Table156[[#This Row],[Foul Shot (M)]]/Table156[[#This Row],[Foul Shot (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="40">
+        <f>IFERROR(Table156[[#This Row],[Field Goal (M)]]/Table156[[#This Row],[Field Goal (A)]],0)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T5" s="31">
+        <f>IFERROR(Table156[[#This Row],[Three Pointer (M)]]/Table156[[#This Row],[Three Pointer (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="5"/>
+      <c r="V5" s="41">
+        <f>Table156[[#This Row],[Foul Shot (A)]]+Table156[[#This Row],[Foul Shot (M)]]</f>
+        <v>0</v>
+      </c>
+      <c r="W5" s="41">
+        <f>Table156[[#This Row],[Field Goal (A)]]+Table156[[#This Row],[Field Goal (M)]]</f>
+        <v>4</v>
+      </c>
+      <c r="X5" s="41">
+        <f>SUM(Table156[[#This Row],[Three Pointer (A)]]+Table156[[#This Row],[Three Pointer (M)]])</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="63">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="Z5" s="63">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AA5" s="63">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="23">
+        <v>3</v>
+      </c>
+      <c r="G6" s="24">
+        <v>0</v>
+      </c>
+      <c r="H6" s="23">
+        <v>0</v>
+      </c>
+      <c r="I6" s="24">
+        <v>0</v>
+      </c>
+      <c r="J6" s="23">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>3</v>
+      </c>
+      <c r="L6" s="24">
+        <v>0</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="5">
+        <v>3</v>
+      </c>
+      <c r="O6" s="24">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <f>(Table156[[#This Row],[Field Goal (M)]]*2)+(Table156[[#This Row],[Three Pointer (M)]]*3)+Table156[[#This Row],[Foul Shot (M)]]</f>
+        <v>6</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>1</v>
+      </c>
+      <c r="R6" s="39">
+        <f>IFERROR(Table156[[#This Row],[Foul Shot (M)]]/Table156[[#This Row],[Foul Shot (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="40">
+        <f>IFERROR(Table156[[#This Row],[Field Goal (M)]]/Table156[[#This Row],[Field Goal (A)]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="T6" s="31">
+        <f>IFERROR(Table156[[#This Row],[Three Pointer (M)]]/Table156[[#This Row],[Three Pointer (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="5"/>
+      <c r="V6" s="41">
+        <f>Table156[[#This Row],[Foul Shot (A)]]+Table156[[#This Row],[Foul Shot (M)]]</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="41">
+        <f>Table156[[#This Row],[Field Goal (A)]]+Table156[[#This Row],[Field Goal (M)]]</f>
+        <v>6</v>
+      </c>
+      <c r="X6" s="41">
+        <f>SUM(Table156[[#This Row],[Three Pointer (A)]]+Table156[[#This Row],[Three Pointer (M)]])</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="63">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="Z6" s="63">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AA6" s="63">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="23">
+        <v>3</v>
+      </c>
+      <c r="G7" s="24">
+        <v>3</v>
+      </c>
+      <c r="H7" s="23">
+        <v>0</v>
+      </c>
+      <c r="I7" s="24">
+        <v>0</v>
+      </c>
+      <c r="J7" s="23">
+        <v>4</v>
+      </c>
+      <c r="K7" s="5">
+        <v>6</v>
+      </c>
+      <c r="L7" s="24">
+        <v>0</v>
+      </c>
+      <c r="M7" s="23">
+        <v>2</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="24">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <f>(Table156[[#This Row],[Field Goal (M)]]*2)+(Table156[[#This Row],[Three Pointer (M)]]*3)+Table156[[#This Row],[Foul Shot (M)]]</f>
+        <v>2</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>2</v>
+      </c>
+      <c r="R7" s="39">
+        <f>IFERROR(Table156[[#This Row],[Foul Shot (M)]]/Table156[[#This Row],[Foul Shot (A)]],0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="S7" s="40">
+        <f>IFERROR(Table156[[#This Row],[Field Goal (M)]]/Table156[[#This Row],[Field Goal (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="31">
+        <f>IFERROR(Table156[[#This Row],[Three Pointer (M)]]/Table156[[#This Row],[Three Pointer (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="5"/>
+      <c r="V7" s="41">
+        <f>Table156[[#This Row],[Foul Shot (A)]]+Table156[[#This Row],[Foul Shot (M)]]</f>
+        <v>6</v>
+      </c>
+      <c r="W7" s="41">
+        <f>Table156[[#This Row],[Field Goal (A)]]+Table156[[#This Row],[Field Goal (M)]]</f>
+        <v>6</v>
+      </c>
+      <c r="X7" s="41">
+        <f>SUM(Table156[[#This Row],[Three Pointer (A)]]+Table156[[#This Row],[Three Pointer (M)]])</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="63">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Z7" s="63">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AA7" s="63">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="23">
+        <v>0</v>
+      </c>
+      <c r="G8" s="24">
+        <v>0</v>
+      </c>
+      <c r="H8" s="23">
+        <v>0</v>
+      </c>
+      <c r="I8" s="24">
+        <v>0</v>
+      </c>
+      <c r="J8" s="23">
+        <v>7</v>
+      </c>
+      <c r="K8" s="5">
+        <v>12</v>
+      </c>
+      <c r="L8" s="24">
+        <v>0</v>
+      </c>
+      <c r="M8" s="23">
+        <v>3</v>
+      </c>
+      <c r="N8" s="5">
+        <v>3</v>
+      </c>
+      <c r="O8" s="24">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <f>(Table156[[#This Row],[Field Goal (M)]]*2)+(Table156[[#This Row],[Three Pointer (M)]]*3)+Table156[[#This Row],[Foul Shot (M)]]</f>
+        <v>9</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>5</v>
+      </c>
+      <c r="R8" s="39">
+        <f>IFERROR(Table156[[#This Row],[Foul Shot (M)]]/Table156[[#This Row],[Foul Shot (A)]],0)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="S8" s="40">
+        <f>IFERROR(Table156[[#This Row],[Field Goal (M)]]/Table156[[#This Row],[Field Goal (A)]],0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="T8" s="31">
+        <f>IFERROR(Table156[[#This Row],[Three Pointer (M)]]/Table156[[#This Row],[Three Pointer (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="5"/>
+      <c r="V8" s="41">
+        <f>Table156[[#This Row],[Foul Shot (A)]]+Table156[[#This Row],[Foul Shot (M)]]</f>
+        <v>10</v>
+      </c>
+      <c r="W8" s="41">
+        <f>Table156[[#This Row],[Field Goal (A)]]+Table156[[#This Row],[Field Goal (M)]]</f>
+        <v>15</v>
+      </c>
+      <c r="X8" s="41">
+        <f>SUM(Table156[[#This Row],[Three Pointer (A)]]+Table156[[#This Row],[Three Pointer (M)]])</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="63">
+        <f t="shared" si="0"/>
+        <v>19.5</v>
+      </c>
+      <c r="Z8" s="63">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AA8" s="63">
+        <f t="shared" si="2"/>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="23">
+        <v>0</v>
+      </c>
+      <c r="G9" s="24">
+        <v>2</v>
+      </c>
+      <c r="H9" s="23">
+        <v>0</v>
+      </c>
+      <c r="I9" s="24">
+        <v>0</v>
+      </c>
+      <c r="J9" s="23">
+        <v>4</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+      <c r="L9" s="24">
+        <v>0</v>
+      </c>
+      <c r="M9" s="23">
+        <v>2</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="24">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <f>(Table156[[#This Row],[Field Goal (M)]]*2)+(Table156[[#This Row],[Three Pointer (M)]]*3)+Table156[[#This Row],[Foul Shot (M)]]</f>
+        <v>2</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>1</v>
+      </c>
+      <c r="R9" s="39">
+        <f>IFERROR(Table156[[#This Row],[Foul Shot (M)]]/Table156[[#This Row],[Foul Shot (A)]],0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="S9" s="40">
+        <f>IFERROR(Table156[[#This Row],[Field Goal (M)]]/Table156[[#This Row],[Field Goal (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="31">
+        <f>IFERROR(Table156[[#This Row],[Three Pointer (M)]]/Table156[[#This Row],[Three Pointer (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="5"/>
+      <c r="V9" s="41">
+        <f>Table156[[#This Row],[Foul Shot (A)]]+Table156[[#This Row],[Foul Shot (M)]]</f>
+        <v>6</v>
+      </c>
+      <c r="W9" s="41">
+        <f>Table156[[#This Row],[Field Goal (A)]]+Table156[[#This Row],[Field Goal (M)]]</f>
+        <v>1</v>
+      </c>
+      <c r="X9" s="41">
+        <f>SUM(Table156[[#This Row],[Three Pointer (A)]]+Table156[[#This Row],[Three Pointer (M)]])</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="63">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Z9" s="63">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AA9" s="63">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>65</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="23">
+        <v>0</v>
+      </c>
+      <c r="G10" s="24">
+        <v>0</v>
+      </c>
+      <c r="H10" s="23">
+        <v>0</v>
+      </c>
+      <c r="I10" s="24">
+        <v>0</v>
+      </c>
+      <c r="J10" s="23">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="24">
+        <v>0</v>
+      </c>
+      <c r="M10" s="23">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="24">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <f>(Table156[[#This Row],[Field Goal (M)]]*2)+(Table156[[#This Row],[Three Pointer (M)]]*3)+Table156[[#This Row],[Foul Shot (M)]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="39">
+        <f>IFERROR(Table156[[#This Row],[Foul Shot (M)]]/Table156[[#This Row],[Foul Shot (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="40">
+        <f>IFERROR(Table156[[#This Row],[Field Goal (M)]]/Table156[[#This Row],[Field Goal (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="31">
+        <f>IFERROR(Table156[[#This Row],[Three Pointer (M)]]/Table156[[#This Row],[Three Pointer (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="V10" s="41">
+        <f>Table156[[#This Row],[Foul Shot (A)]]+Table156[[#This Row],[Foul Shot (M)]]</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="41">
+        <f>Table156[[#This Row],[Field Goal (A)]]+Table156[[#This Row],[Field Goal (M)]]</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="41">
+        <f>SUM(Table156[[#This Row],[Three Pointer (A)]]+Table156[[#This Row],[Three Pointer (M)]])</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="23">
+        <v>0</v>
+      </c>
+      <c r="G11" s="24">
+        <v>2</v>
+      </c>
+      <c r="H11" s="23">
+        <v>0</v>
+      </c>
+      <c r="I11" s="24">
+        <v>0</v>
+      </c>
+      <c r="J11" s="23">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>2</v>
+      </c>
+      <c r="L11" s="24">
+        <v>2</v>
+      </c>
+      <c r="M11" s="23">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1</v>
+      </c>
+      <c r="O11" s="24">
+        <v>1</v>
+      </c>
+      <c r="P11" s="5">
+        <f>(Table156[[#This Row],[Field Goal (M)]]*2)+(Table156[[#This Row],[Three Pointer (M)]]*3)+Table156[[#This Row],[Foul Shot (M)]]</f>
+        <v>5</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>1</v>
+      </c>
+      <c r="R11" s="39">
+        <f>IFERROR(Table156[[#This Row],[Foul Shot (M)]]/Table156[[#This Row],[Foul Shot (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="40">
+        <f>IFERROR(Table156[[#This Row],[Field Goal (M)]]/Table156[[#This Row],[Field Goal (A)]],0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="T11" s="31">
+        <f>IFERROR(Table156[[#This Row],[Three Pointer (M)]]/Table156[[#This Row],[Three Pointer (A)]],0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U11" s="5"/>
+      <c r="V11" s="41">
+        <f>Table156[[#This Row],[Foul Shot (A)]]+Table156[[#This Row],[Foul Shot (M)]]</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="41">
+        <f>Table156[[#This Row],[Field Goal (A)]]+Table156[[#This Row],[Field Goal (M)]]</f>
+        <v>3</v>
+      </c>
+      <c r="X11" s="41">
+        <f>SUM(Table156[[#This Row],[Three Pointer (A)]]+Table156[[#This Row],[Three Pointer (M)]])</f>
+        <v>3</v>
+      </c>
+      <c r="Y11" s="63">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="Z11" s="63">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AA11" s="63">
+        <f t="shared" si="2"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="5">
+        <f>SUM(Table156[Steals])</f>
+        <v>10</v>
+      </c>
+      <c r="D12" s="5">
+        <f>SUM(Table156[Turnovers])</f>
+        <v>19</v>
+      </c>
+      <c r="E12" s="5">
+        <f>SUM(Table156[Assists])</f>
+        <v>5</v>
+      </c>
+      <c r="F12" s="25">
+        <f>SUM(Table156[Rebound (Offensive)])</f>
+        <v>12</v>
+      </c>
+      <c r="G12" s="26">
+        <f>SUM(Table156[Rebound (Defensive)])</f>
+        <v>16</v>
+      </c>
+      <c r="H12" s="25">
+        <f>SUM(Table156[Charge (Offensive)])</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="26">
+        <f>SUM(Table156[Charge (Defensive)])</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="25">
+        <f>SUM(Table156[Foul Shot (A)])</f>
+        <v>19</v>
+      </c>
+      <c r="K12" s="28">
+        <f>SUM(Table156[Field Goal (A)])</f>
+        <v>33</v>
+      </c>
+      <c r="L12" s="26">
+        <f>SUM(Table156[Three Pointer (A)])</f>
+        <v>4</v>
+      </c>
+      <c r="M12" s="25">
+        <f>SUM(Table156[Foul Shot (M)])</f>
+        <v>9</v>
+      </c>
+      <c r="N12" s="28">
+        <f>SUM(Table156[Field Goal (M)])</f>
+        <v>11</v>
+      </c>
+      <c r="O12" s="26">
+        <f>SUM(Table156[Three Pointer (M)])</f>
+        <v>2</v>
+      </c>
+      <c r="P12" s="5">
+        <f>SUM(Table156[[Points ]])</f>
+        <v>37</v>
+      </c>
+      <c r="Q12" s="5">
+        <f>SUM(Table156[Fouls])</f>
+        <v>19</v>
+      </c>
+      <c r="R12" s="32">
+        <f>Table156[[#Totals],[Foul Shot (M)]]/Table156[[#Totals],[Foul Shot (A)]]</f>
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="S12" s="33">
+        <f>Table156[[#Totals],[Field Goal (M)]]/Table156[[#Totals],[Field Goal (A)]]</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T12" s="34">
+        <f>Table156[[#Totals],[Three Pointer (M)]]/Table156[[#Totals],[Three Pointer (A)]]</f>
+        <v>0.5</v>
+      </c>
+      <c r="U12" s="5"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="41"/>
+    </row>
+    <row r="13" spans="1:27" ht="20" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:27" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14">
+        <v>9</v>
+      </c>
+      <c r="G14" s="14">
+        <v>5</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="15"/>
+    </row>
+    <row r="21" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M21" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M22" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M23" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M25" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M26" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M27" t="s">
+        <v>33</v>
+      </c>
+      <c r="N27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M28" t="s">
+        <v>36</v>
+      </c>
+      <c r="N28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M29" t="s">
+        <v>34</v>
+      </c>
+      <c r="N29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M30" t="s">
+        <v>35</v>
+      </c>
+      <c r="N30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M31" t="s">
+        <v>39</v>
+      </c>
+      <c r="N31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M32" t="s">
+        <v>37</v>
+      </c>
+      <c r="N32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M33" t="s">
+        <v>38</v>
+      </c>
+      <c r="N33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M34" t="s">
+        <v>7</v>
+      </c>
+      <c r="N34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M35" t="s">
+        <v>42</v>
+      </c>
+      <c r="N35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M36" t="s">
+        <v>72</v>
+      </c>
+      <c r="N36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M37" t="s">
+        <v>73</v>
+      </c>
+      <c r="N37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M38" t="s">
+        <v>71</v>
+      </c>
+      <c r="N38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M40" t="s">
+        <v>128</v>
+      </c>
+      <c r="N40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M41" t="s">
+        <v>129</v>
+      </c>
+      <c r="N41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="M42" t="s">
+        <v>130</v>
+      </c>
+      <c r="N42" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="13:14" x14ac:dyDescent="0.2">
+      <c r="N43"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="AA2:AA11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="Q10 A2:A11 M3:M6" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80C3F86-F636-1F4A-B6D2-B04BFD5D7B37}">
+  <dimension ref="A1:AA14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AC4" sqref="AC4:AC6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="11" customWidth="1"/>
+    <col min="3" max="12" width="14.33203125" style="11"/>
+    <col min="14" max="16" width="14.33203125" style="11"/>
+    <col min="19" max="20" width="14.33203125" style="11"/>
+    <col min="21" max="21" width="14.33203125" style="16"/>
+    <col min="23" max="23" width="14.33203125" style="16"/>
+    <col min="24" max="16384" width="14.33203125" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="W1" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="X1" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="23">
+        <v>0</v>
+      </c>
+      <c r="G2" s="24">
+        <v>3</v>
+      </c>
+      <c r="H2" s="23">
+        <v>0</v>
+      </c>
+      <c r="I2" s="24">
+        <v>0</v>
+      </c>
+      <c r="J2" s="23">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>5</v>
+      </c>
+      <c r="L2" s="24">
+        <v>0</v>
+      </c>
+      <c r="M2" s="23">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>3</v>
+      </c>
+      <c r="O2" s="24">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <f>(Table1567[[#This Row],[Field Goal (M)]]*2)+(Table1567[[#This Row],[Three Pointer (M)]]*3)+Table1567[[#This Row],[Foul Shot (M)]]</f>
+        <v>6</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>4</v>
+      </c>
+      <c r="R2" s="29">
+        <f>IFERROR(Table1567[[#This Row],[Foul Shot (M)]]/Table1567[[#This Row],[Foul Shot (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="30">
+        <f>IFERROR(Table1567[[#This Row],[Field Goal (M)]]/Table1567[[#This Row],[Field Goal (A)]],0)</f>
+        <v>0.6</v>
+      </c>
+      <c r="T2" s="31">
+        <f>IFERROR(Table1567[[#This Row],[Three Pointer (M)]]/Table1567[[#This Row],[Three Pointer (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="5"/>
+      <c r="V2" s="41">
+        <f>SUM(Table1567[[#This Row],[Foul Shot (A)]]+Table1567[[#This Row],[Foul Shot (M)]])</f>
+        <v>0</v>
+      </c>
+      <c r="W2" s="41">
+        <f>SUM(Table1567[[#This Row],[Field Goal (A)]]+Table1567[[#This Row],[Field Goal (M)]])</f>
+        <v>8</v>
+      </c>
+      <c r="X2" s="41">
+        <f>SUM(Table1567[[#This Row],[Three Pointer (A)]]+Table1567[[#This Row],[Three Pointer (M)]])</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="63">
+        <f xml:space="preserve"> (0.5*P2)
+  + (2*E2)
+  + (3*F2)
+  + (1*H2)
+  + (2*J2)
+  - (1*D2)
+  + IF(S2&gt;0.4, (S2-0.4)*10, 0)
+  + IF(T2&gt;0.3, (T2-0.3)*10, 0)
+  + IF(R2&gt;0.7, (R2-0.7)*5, 0)</f>
+        <v>7</v>
+      </c>
+      <c r="Z2" s="63">
+        <f t="shared" ref="Z2:Z11" si="0" xml:space="preserve"> (3*C2)
+  + (2*G2)
+  + (2*I2)</f>
+        <v>9</v>
+      </c>
+      <c r="AA2" s="63">
+        <f t="shared" ref="AA2:AA11" si="1" xml:space="preserve"> Y2
+  + Z2
+  - IF(Q2&lt;4, 0, IF(Q2=4, 1, 3))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="23">
+        <v>2</v>
+      </c>
+      <c r="G3" s="24">
+        <v>1</v>
+      </c>
+      <c r="H3" s="23">
+        <v>0</v>
+      </c>
+      <c r="I3" s="24">
+        <v>0</v>
+      </c>
+      <c r="J3" s="23">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="24">
+        <v>0</v>
+      </c>
+      <c r="M3" s="23">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="24">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <f>(Table1567[[#This Row],[Field Goal (M)]]*2)+(Table1567[[#This Row],[Three Pointer (M)]]*3)+Table1567[[#This Row],[Foul Shot (M)]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+      <c r="R3" s="29">
+        <f>IFERROR(Table1567[[#This Row],[Foul Shot (M)]]/Table1567[[#This Row],[Foul Shot (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="30">
+        <f>IFERROR(Table1567[[#This Row],[Field Goal (M)]]/Table1567[[#This Row],[Field Goal (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="31">
+        <f>IFERROR(Table1567[[#This Row],[Three Pointer (M)]]/Table1567[[#This Row],[Three Pointer (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="5"/>
+      <c r="V3" s="41">
+        <f>SUM(Table1567[[#This Row],[Foul Shot (A)]]+Table1567[[#This Row],[Foul Shot (M)]])</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="41">
+        <f>SUM(Table1567[[#This Row],[Field Goal (A)]]+Table1567[[#This Row],[Field Goal (M)]])</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="41">
+        <f>SUM(Table1567[[#This Row],[Three Pointer (A)]]+Table1567[[#This Row],[Three Pointer (M)]])</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="63">
+        <f t="shared" ref="Y2:Y11" si="2" xml:space="preserve"> (0.5*P3)
+  + (2*E3)
+  + (3*F3)
+  + (1*H3)
+  + (2*J3)
+  - (1*D3)
+  + IF(S3&gt;0.4, (S3-0.4)*10, 0)
+  + IF(T3&gt;0.3, (T3-0.3)*10, 0)
+  + IF(R3&gt;0.7, (R3-0.7)*5, 0)</f>
+        <v>4</v>
+      </c>
+      <c r="Z3" s="63">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AA3" s="63">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="23">
+        <v>2</v>
+      </c>
+      <c r="G4" s="24">
+        <v>3</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0</v>
+      </c>
+      <c r="I4" s="24">
+        <v>0</v>
+      </c>
+      <c r="J4" s="23">
+        <v>2</v>
+      </c>
+      <c r="K4" s="5">
+        <v>4</v>
+      </c>
+      <c r="L4" s="24">
+        <v>0</v>
+      </c>
+      <c r="M4" s="23">
+        <v>2</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1</v>
+      </c>
+      <c r="O4" s="24">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <f>(Table1567[[#This Row],[Field Goal (M)]]*2)+(Table1567[[#This Row],[Three Pointer (M)]]*3)+Table1567[[#This Row],[Foul Shot (M)]]</f>
+        <v>4</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+      <c r="R4" s="29">
+        <f>IFERROR(Table1567[[#This Row],[Foul Shot (M)]]/Table1567[[#This Row],[Foul Shot (A)]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="S4" s="30">
+        <f>IFERROR(Table1567[[#This Row],[Field Goal (M)]]/Table1567[[#This Row],[Field Goal (A)]],0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="T4" s="31">
+        <f>IFERROR(Table1567[[#This Row],[Three Pointer (M)]]/Table1567[[#This Row],[Three Pointer (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="5"/>
+      <c r="V4" s="41">
+        <f>SUM(Table1567[[#This Row],[Foul Shot (A)]]+Table1567[[#This Row],[Foul Shot (M)]])</f>
+        <v>4</v>
+      </c>
+      <c r="W4" s="41">
+        <f>SUM(Table1567[[#This Row],[Field Goal (A)]]+Table1567[[#This Row],[Field Goal (M)]])</f>
+        <v>5</v>
+      </c>
+      <c r="X4" s="41">
+        <f>SUM(Table1567[[#This Row],[Three Pointer (A)]]+Table1567[[#This Row],[Three Pointer (M)]])</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="63">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+      <c r="Z4" s="63">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AA4" s="63">
+        <f t="shared" si="1"/>
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="23">
+        <v>0</v>
+      </c>
+      <c r="G5" s="24">
+        <v>1</v>
+      </c>
+      <c r="H5" s="23">
+        <v>0</v>
+      </c>
+      <c r="I5" s="24">
+        <v>0</v>
+      </c>
+      <c r="J5" s="23">
+        <v>3</v>
+      </c>
+      <c r="K5" s="5">
+        <v>6</v>
+      </c>
+      <c r="L5" s="24">
+        <v>0</v>
+      </c>
+      <c r="M5" s="23">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5">
+        <v>2</v>
+      </c>
+      <c r="O5" s="24">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <f>(Table1567[[#This Row],[Field Goal (M)]]*2)+(Table1567[[#This Row],[Three Pointer (M)]]*3)+Table1567[[#This Row],[Foul Shot (M)]]</f>
+        <v>5</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>5</v>
+      </c>
+      <c r="R5" s="29">
+        <f>IFERROR(Table1567[[#This Row],[Foul Shot (M)]]/Table1567[[#This Row],[Foul Shot (A)]],0)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S5" s="30">
+        <f>IFERROR(Table1567[[#This Row],[Field Goal (M)]]/Table1567[[#This Row],[Field Goal (A)]],0)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T5" s="31">
+        <f>IFERROR(Table1567[[#This Row],[Three Pointer (M)]]/Table1567[[#This Row],[Three Pointer (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="5"/>
+      <c r="V5" s="41">
+        <f>SUM(Table1567[[#This Row],[Foul Shot (A)]]+Table1567[[#This Row],[Foul Shot (M)]])</f>
+        <v>4</v>
+      </c>
+      <c r="W5" s="41">
+        <f>SUM(Table1567[[#This Row],[Field Goal (A)]]+Table1567[[#This Row],[Field Goal (M)]])</f>
+        <v>8</v>
+      </c>
+      <c r="X5" s="41">
+        <f>SUM(Table1567[[#This Row],[Three Pointer (A)]]+Table1567[[#This Row],[Three Pointer (M)]])</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="63">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="Z5" s="63">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="AA5" s="63">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="23">
+        <v>0</v>
+      </c>
+      <c r="G6" s="24">
+        <v>0</v>
+      </c>
+      <c r="H6" s="23">
+        <v>0</v>
+      </c>
+      <c r="I6" s="24">
+        <v>0</v>
+      </c>
+      <c r="J6" s="23">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>5</v>
+      </c>
+      <c r="L6" s="24">
+        <v>0</v>
+      </c>
+      <c r="M6" s="23">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1</v>
+      </c>
+      <c r="O6" s="24">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <f>(Table1567[[#This Row],[Field Goal (M)]]*2)+(Table1567[[#This Row],[Three Pointer (M)]]*3)+Table1567[[#This Row],[Foul Shot (M)]]</f>
+        <v>2</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>1</v>
+      </c>
+      <c r="R6" s="29">
+        <f>IFERROR(Table1567[[#This Row],[Foul Shot (M)]]/Table1567[[#This Row],[Foul Shot (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="30">
+        <f>IFERROR(Table1567[[#This Row],[Field Goal (M)]]/Table1567[[#This Row],[Field Goal (A)]],0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="T6" s="31">
+        <f>IFERROR(Table1567[[#This Row],[Three Pointer (M)]]/Table1567[[#This Row],[Three Pointer (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="5"/>
+      <c r="V6" s="41">
+        <f>SUM(Table1567[[#This Row],[Foul Shot (A)]]+Table1567[[#This Row],[Foul Shot (M)]])</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="41">
+        <f>SUM(Table1567[[#This Row],[Field Goal (A)]]+Table1567[[#This Row],[Field Goal (M)]])</f>
+        <v>6</v>
+      </c>
+      <c r="X6" s="41">
+        <f>SUM(Table1567[[#This Row],[Three Pointer (A)]]+Table1567[[#This Row],[Three Pointer (M)]])</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="23">
+        <v>0</v>
+      </c>
+      <c r="G7" s="24">
+        <v>0</v>
+      </c>
+      <c r="H7" s="23">
+        <v>0</v>
+      </c>
+      <c r="I7" s="24">
+        <v>0</v>
+      </c>
+      <c r="J7" s="23">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>3</v>
+      </c>
+      <c r="L7" s="24">
+        <v>0</v>
+      </c>
+      <c r="M7" s="23">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="24">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <f>(Table1567[[#This Row],[Field Goal (M)]]*2)+(Table1567[[#This Row],[Three Pointer (M)]]*3)+Table1567[[#This Row],[Foul Shot (M)]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+      <c r="R7" s="29">
+        <f>IFERROR(Table1567[[#This Row],[Foul Shot (M)]]/Table1567[[#This Row],[Foul Shot (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="30">
+        <f>IFERROR(Table1567[[#This Row],[Field Goal (M)]]/Table1567[[#This Row],[Field Goal (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="31">
+        <f>IFERROR(Table1567[[#This Row],[Three Pointer (M)]]/Table1567[[#This Row],[Three Pointer (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="5"/>
+      <c r="V7" s="41">
+        <f>SUM(Table1567[[#This Row],[Foul Shot (A)]]+Table1567[[#This Row],[Foul Shot (M)]])</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="41">
+        <f>SUM(Table1567[[#This Row],[Field Goal (A)]]+Table1567[[#This Row],[Field Goal (M)]])</f>
+        <v>3</v>
+      </c>
+      <c r="X7" s="41">
+        <f>SUM(Table1567[[#This Row],[Three Pointer (A)]]+Table1567[[#This Row],[Three Pointer (M)]])</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="63">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="Z7" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="63">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="23">
+        <v>0</v>
+      </c>
+      <c r="G8" s="24">
+        <v>1</v>
+      </c>
+      <c r="H8" s="23">
+        <v>0</v>
+      </c>
+      <c r="I8" s="24">
+        <v>0</v>
+      </c>
+      <c r="J8" s="23">
+        <v>2</v>
+      </c>
+      <c r="K8" s="5">
+        <v>9</v>
+      </c>
+      <c r="L8" s="24">
+        <v>0</v>
+      </c>
+      <c r="M8" s="23">
+        <v>2</v>
+      </c>
+      <c r="N8" s="5">
+        <v>5</v>
+      </c>
+      <c r="O8" s="24">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <f>(Table1567[[#This Row],[Field Goal (M)]]*2)+(Table1567[[#This Row],[Three Pointer (M)]]*3)+Table1567[[#This Row],[Foul Shot (M)]]</f>
+        <v>12</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>2</v>
+      </c>
+      <c r="R8" s="29">
+        <f>IFERROR(Table1567[[#This Row],[Foul Shot (M)]]/Table1567[[#This Row],[Foul Shot (A)]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="S8" s="30">
+        <f>IFERROR(Table1567[[#This Row],[Field Goal (M)]]/Table1567[[#This Row],[Field Goal (A)]],0)</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="T8" s="31">
+        <f>IFERROR(Table1567[[#This Row],[Three Pointer (M)]]/Table1567[[#This Row],[Three Pointer (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="5"/>
+      <c r="V8" s="41">
+        <f>SUM(Table1567[[#This Row],[Foul Shot (A)]]+Table1567[[#This Row],[Foul Shot (M)]])</f>
+        <v>4</v>
+      </c>
+      <c r="W8" s="41">
+        <f>SUM(Table1567[[#This Row],[Field Goal (A)]]+Table1567[[#This Row],[Field Goal (M)]])</f>
+        <v>14</v>
+      </c>
+      <c r="X8" s="41">
+        <f>SUM(Table1567[[#This Row],[Three Pointer (A)]]+Table1567[[#This Row],[Three Pointer (M)]])</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="63">
+        <f t="shared" si="2"/>
+        <v>10.055555555555555</v>
+      </c>
+      <c r="Z8" s="63">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AA8" s="63">
+        <f t="shared" si="1"/>
+        <v>18.055555555555557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="23">
+        <v>2</v>
+      </c>
+      <c r="G9" s="24">
+        <v>4</v>
+      </c>
+      <c r="H9" s="23">
+        <v>0</v>
+      </c>
+      <c r="I9" s="24">
+        <v>0</v>
+      </c>
+      <c r="J9" s="23">
+        <v>2</v>
+      </c>
+      <c r="K9" s="5">
+        <v>4</v>
+      </c>
+      <c r="L9" s="24">
+        <v>0</v>
+      </c>
+      <c r="M9" s="23">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5">
+        <v>2</v>
+      </c>
+      <c r="O9" s="24">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <f>(Table1567[[#This Row],[Field Goal (M)]]*2)+(Table1567[[#This Row],[Three Pointer (M)]]*3)+Table1567[[#This Row],[Foul Shot (M)]]</f>
+        <v>5</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>5</v>
+      </c>
+      <c r="R9" s="29">
+        <f>IFERROR(Table1567[[#This Row],[Foul Shot (M)]]/Table1567[[#This Row],[Foul Shot (A)]],0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="S9" s="30">
+        <f>IFERROR(Table1567[[#This Row],[Field Goal (M)]]/Table1567[[#This Row],[Field Goal (A)]],0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="T9" s="31">
+        <f>IFERROR(Table1567[[#This Row],[Three Pointer (M)]]/Table1567[[#This Row],[Three Pointer (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="5"/>
+      <c r="V9" s="41">
+        <f>SUM(Table1567[[#This Row],[Foul Shot (A)]]+Table1567[[#This Row],[Foul Shot (M)]])</f>
+        <v>3</v>
+      </c>
+      <c r="W9" s="41">
+        <f>SUM(Table1567[[#This Row],[Field Goal (A)]]+Table1567[[#This Row],[Field Goal (M)]])</f>
+        <v>6</v>
+      </c>
+      <c r="X9" s="41">
+        <f>SUM(Table1567[[#This Row],[Three Pointer (A)]]+Table1567[[#This Row],[Three Pointer (M)]])</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="63">
+        <f t="shared" si="2"/>
+        <v>15.5</v>
+      </c>
+      <c r="Z9" s="63">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AA9" s="63">
+        <f xml:space="preserve"> Y9
+  + Z9
+  - IF(Q9&lt;4, 0, IF(Q9=4, 1, 3))</f>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>65</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="23">
+        <v>0</v>
+      </c>
+      <c r="G10" s="24">
+        <v>1</v>
+      </c>
+      <c r="H10" s="23">
+        <v>0</v>
+      </c>
+      <c r="I10" s="24">
+        <v>0</v>
+      </c>
+      <c r="J10" s="23">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="24">
+        <v>0</v>
+      </c>
+      <c r="M10" s="23">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="24">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <f>(Table1567[[#This Row],[Field Goal (M)]]*2)+(Table1567[[#This Row],[Three Pointer (M)]]*3)+Table1567[[#This Row],[Foul Shot (M)]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>1</v>
+      </c>
+      <c r="R10" s="29">
+        <f>IFERROR(Table1567[[#This Row],[Foul Shot (M)]]/Table1567[[#This Row],[Foul Shot (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="30">
+        <f>IFERROR(Table1567[[#This Row],[Field Goal (M)]]/Table1567[[#This Row],[Field Goal (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="31">
+        <f>IFERROR(Table1567[[#This Row],[Three Pointer (M)]]/Table1567[[#This Row],[Three Pointer (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="5"/>
+      <c r="V10" s="41">
+        <f>SUM(Table1567[[#This Row],[Foul Shot (A)]]+Table1567[[#This Row],[Foul Shot (M)]])</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="41">
+        <f>SUM(Table1567[[#This Row],[Field Goal (A)]]+Table1567[[#This Row],[Field Goal (M)]])</f>
+        <v>1</v>
+      </c>
+      <c r="X10" s="41">
+        <f>SUM(Table1567[[#This Row],[Three Pointer (A)]]+Table1567[[#This Row],[Three Pointer (M)]])</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="63">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+      <c r="Z10" s="63">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AA10" s="63">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="23">
+        <v>2</v>
+      </c>
+      <c r="G11" s="24">
+        <v>2</v>
+      </c>
+      <c r="H11" s="23">
+        <v>0</v>
+      </c>
+      <c r="I11" s="24">
+        <v>0</v>
+      </c>
+      <c r="J11" s="23">
+        <v>3</v>
+      </c>
+      <c r="K11" s="5">
+        <v>2</v>
+      </c>
+      <c r="L11" s="24">
+        <v>0</v>
+      </c>
+      <c r="M11" s="23">
+        <v>3</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1</v>
+      </c>
+      <c r="O11" s="24">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <f>(Table1567[[#This Row],[Field Goal (M)]]*2)+(Table1567[[#This Row],[Three Pointer (M)]]*3)+Table1567[[#This Row],[Foul Shot (M)]]</f>
+        <v>5</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>1</v>
+      </c>
+      <c r="R11" s="29">
+        <f>IFERROR(Table1567[[#This Row],[Foul Shot (M)]]/Table1567[[#This Row],[Foul Shot (A)]],0)</f>
+        <v>1</v>
+      </c>
+      <c r="S11" s="30">
+        <f>IFERROR(Table1567[[#This Row],[Field Goal (M)]]/Table1567[[#This Row],[Field Goal (A)]],0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="T11" s="31">
+        <f>IFERROR(Table1567[[#This Row],[Three Pointer (M)]]/Table1567[[#This Row],[Three Pointer (A)]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="5"/>
+      <c r="V11" s="41">
+        <f>SUM(Table1567[[#This Row],[Foul Shot (A)]]+Table1567[[#This Row],[Foul Shot (M)]])</f>
+        <v>6</v>
+      </c>
+      <c r="W11" s="41">
+        <f>SUM(Table1567[[#This Row],[Field Goal (A)]]+Table1567[[#This Row],[Field Goal (M)]])</f>
+        <v>3</v>
+      </c>
+      <c r="X11" s="41">
+        <f>SUM(Table1567[[#This Row],[Three Pointer (A)]]+Table1567[[#This Row],[Three Pointer (M)]])</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="63">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="Z11" s="63">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AA11" s="63">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="5">
+        <f>SUM(Table1567[Steals])</f>
+        <v>8</v>
+      </c>
+      <c r="D12" s="5">
+        <f>SUM(Table1567[Turnovers])</f>
+        <v>17</v>
+      </c>
+      <c r="E12" s="5">
+        <f>SUM(Table1567[Assists])</f>
+        <v>2</v>
+      </c>
+      <c r="F12" s="25">
+        <f>SUM(Table1567[Rebound (Offensive)])</f>
+        <v>8</v>
+      </c>
+      <c r="G12" s="26">
+        <f>SUM(Table1567[Rebound (Defensive)])</f>
+        <v>16</v>
+      </c>
+      <c r="H12" s="25">
+        <f>SUM(Table1567[Charge (Offensive)])</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="26">
+        <f>SUM(Table1567[Charge (Defensive)])</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="25">
+        <f>SUM(Table1567[Foul Shot (A)])</f>
+        <v>12</v>
+      </c>
+      <c r="K12" s="28">
+        <f>SUM(Table1567[Field Goal (A)])</f>
+        <v>39</v>
+      </c>
+      <c r="L12" s="26">
+        <f>SUM(Table1567[Three Pointer (A)])</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="25">
+        <f>SUM(Table1567[Foul Shot (M)])</f>
+        <v>9</v>
+      </c>
+      <c r="N12" s="28">
+        <f>SUM(Table1567[Field Goal (M)])</f>
+        <v>15</v>
+      </c>
+      <c r="O12" s="26">
+        <f>SUM(Table1567[Three Pointer (M)])</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <f>SUM(Table1567[[Points ]])</f>
+        <v>39</v>
+      </c>
+      <c r="Q12" s="5">
+        <f>SUM(Table1567[Fouls])</f>
+        <v>19</v>
+      </c>
+      <c r="R12" s="32">
+        <f>Table1567[[#Totals],[Foul Shot (M)]]/Table1567[[#Totals],[Foul Shot (A)]]</f>
+        <v>0.75</v>
+      </c>
+      <c r="S12" s="33">
+        <f>Table1567[[#Totals],[Field Goal (M)]]/Table1567[[#Totals],[Field Goal (A)]]</f>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="T12" s="34" t="e">
+        <f>Table1567[[#Totals],[Three Pointer (M)]]/Table1567[[#Totals],[Three Pointer (A)]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U12" s="5"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="41"/>
+    </row>
+    <row r="13" spans="1:27" ht="20" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:27" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14">
+        <v>11</v>
+      </c>
+      <c r="G14" s="14">
+        <v>12</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="AA2:AA11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:A11" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B633DC-DF14-B340-904D-D8542ED4C8F6}">
+  <dimension ref="A1:AA28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" style="2" customWidth="1"/>
+    <col min="5" max="27" width="9.83203125" style="2" customWidth="1"/>
+    <col min="28" max="16384" width="14" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="L1" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+    </row>
+    <row r="2" spans="1:27" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA2" s="43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="53">
+        <v>45723</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
+      <c r="I3" s="45">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2">
+        <v>16</v>
+      </c>
+      <c r="K3" s="46">
+        <f>SUM(I3:J3)</f>
+        <v>28</v>
+      </c>
+      <c r="L3" s="45">
+        <v>9</v>
+      </c>
+      <c r="M3" s="2">
+        <v>5</v>
+      </c>
+      <c r="N3" s="46">
+        <f>SUM(L3:M3)</f>
+        <v>14</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="45">
+        <v>19</v>
+      </c>
+      <c r="R3" s="2">
+        <v>33</v>
+      </c>
+      <c r="S3" s="46">
+        <v>4</v>
+      </c>
+      <c r="T3" s="45">
+        <v>9</v>
+      </c>
+      <c r="U3" s="2">
+        <v>11</v>
+      </c>
+      <c r="V3" s="46">
+        <v>2</v>
+      </c>
+      <c r="W3" s="2">
+        <v>37</v>
+      </c>
+      <c r="X3" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y3" s="50">
+        <f>T3/Q3</f>
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="Z3" s="51">
+        <f>U3/R3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AA3" s="52">
+        <f>V3/S3</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="53">
+        <v>45730</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="2">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="45">
+        <v>8</v>
+      </c>
+      <c r="J4" s="2">
+        <v>16</v>
+      </c>
+      <c r="K4" s="46">
+        <f>SUM(I4:J4)</f>
+        <v>24</v>
+      </c>
+      <c r="L4" s="45">
+        <v>11</v>
+      </c>
+      <c r="M4" s="2">
+        <v>12</v>
+      </c>
+      <c r="N4" s="46">
+        <f>SUM(L4:M4)</f>
+        <v>23</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="45">
+        <v>12</v>
+      </c>
+      <c r="R4" s="2">
+        <v>39</v>
+      </c>
+      <c r="S4" s="46">
+        <v>0</v>
+      </c>
+      <c r="T4" s="45">
+        <v>9</v>
+      </c>
+      <c r="U4" s="2">
+        <v>15</v>
+      </c>
+      <c r="V4" s="46">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <v>39</v>
+      </c>
+      <c r="X4" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y4" s="50">
+        <f>T4/Q4</f>
+        <v>0.75</v>
+      </c>
+      <c r="Z4" s="51">
+        <f>U4/R4</f>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="AA4" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="45"/>
+      <c r="N5" s="46"/>
+      <c r="Q5" s="45"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="45"/>
+      <c r="V5" s="46"/>
+      <c r="Y5" s="45"/>
+      <c r="AA5" s="46"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="45"/>
+      <c r="N6" s="46"/>
+      <c r="Q6" s="45"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="45"/>
+      <c r="V6" s="46"/>
+      <c r="Y6" s="45"/>
+      <c r="AA6" s="46"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="45"/>
+      <c r="N7" s="46"/>
+      <c r="Q7" s="45"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="45"/>
+      <c r="V7" s="46"/>
+      <c r="Y7" s="45"/>
+      <c r="AA7" s="46"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="45"/>
+      <c r="N8" s="46"/>
+      <c r="Q8" s="45"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="45"/>
+      <c r="V8" s="46"/>
+      <c r="Y8" s="45"/>
+      <c r="AA8" s="46"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="45"/>
+      <c r="N9" s="46"/>
+      <c r="Q9" s="45"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="45"/>
+      <c r="V9" s="46"/>
+      <c r="Y9" s="45"/>
+      <c r="AA9" s="46"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="45"/>
+      <c r="N10" s="46"/>
+      <c r="Q10" s="45"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="45"/>
+      <c r="V10" s="46"/>
+      <c r="Y10" s="45"/>
+      <c r="AA10" s="46"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="45"/>
+      <c r="N11" s="46"/>
+      <c r="Q11" s="45"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="45"/>
+      <c r="V11" s="46"/>
+      <c r="Y11" s="45"/>
+      <c r="AA11" s="46"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="45"/>
+      <c r="N12" s="46"/>
+      <c r="Q12" s="45"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="45"/>
+      <c r="V12" s="46"/>
+      <c r="Y12" s="45"/>
+      <c r="AA12" s="46"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="45"/>
+      <c r="N13" s="46"/>
+      <c r="Q13" s="45"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="45"/>
+      <c r="V13" s="46"/>
+      <c r="Y13" s="45"/>
+      <c r="AA13" s="46"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="45"/>
+      <c r="N14" s="46"/>
+      <c r="Q14" s="45"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="45"/>
+      <c r="V14" s="46"/>
+      <c r="Y14" s="45"/>
+      <c r="AA14" s="46"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="45"/>
+      <c r="N15" s="46"/>
+      <c r="Q15" s="45"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="45"/>
+      <c r="V15" s="46"/>
+      <c r="Y15" s="45"/>
+      <c r="AA15" s="46"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="45"/>
+      <c r="N16" s="46"/>
+      <c r="Q16" s="45"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="45"/>
+      <c r="V16" s="46"/>
+      <c r="Y16" s="45"/>
+      <c r="AA16" s="46"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="45"/>
+      <c r="N17" s="46"/>
+      <c r="Q17" s="45"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="45"/>
+      <c r="V17" s="46"/>
+      <c r="Y17" s="45"/>
+      <c r="AA17" s="46"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="45"/>
+      <c r="N18" s="46"/>
+      <c r="Q18" s="45"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="45"/>
+      <c r="V18" s="46"/>
+      <c r="Y18" s="45"/>
+      <c r="AA18" s="46"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="45"/>
+      <c r="N19" s="46"/>
+      <c r="Q19" s="45"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="45"/>
+      <c r="V19" s="46"/>
+      <c r="Y19" s="45"/>
+      <c r="AA19" s="46"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="45"/>
+      <c r="N20" s="46"/>
+      <c r="Q20" s="45"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="45"/>
+      <c r="V20" s="46"/>
+      <c r="Y20" s="45"/>
+      <c r="AA20" s="46"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="45"/>
+      <c r="N21" s="46"/>
+      <c r="Q21" s="45"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="45"/>
+      <c r="V21" s="46"/>
+      <c r="Y21" s="45"/>
+      <c r="AA21" s="46"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="45"/>
+      <c r="N22" s="46"/>
+      <c r="Q22" s="45"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="45"/>
+      <c r="V22" s="46"/>
+      <c r="Y22" s="45"/>
+      <c r="AA22" s="46"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="45"/>
+      <c r="N23" s="46"/>
+      <c r="Q23" s="45"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="45"/>
+      <c r="V23" s="46"/>
+      <c r="Y23" s="45"/>
+      <c r="AA23" s="46"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="45"/>
+      <c r="N24" s="46"/>
+      <c r="Q24" s="45"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="45"/>
+      <c r="V24" s="46"/>
+      <c r="Y24" s="45"/>
+      <c r="AA24" s="46"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="45"/>
+      <c r="N25" s="46"/>
+      <c r="Q25" s="45"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="45"/>
+      <c r="V25" s="46"/>
+      <c r="Y25" s="45"/>
+      <c r="AA25" s="46"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="45"/>
+      <c r="N26" s="46"/>
+      <c r="Q26" s="45"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="45"/>
+      <c r="V26" s="46"/>
+      <c r="Y26" s="45"/>
+      <c r="AA26" s="46"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="45"/>
+      <c r="N27" s="46"/>
+      <c r="Q27" s="45"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="45"/>
+      <c r="V27" s="46"/>
+      <c r="Y27" s="45"/>
+      <c r="AA27" s="46"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A28" s="47"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="47"/>
+      <c r="Z28" s="48"/>
+      <c r="AA28" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E3:E5">
+    <cfRule type="expression" dxfId="64" priority="1">
+      <formula>$D3="W"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="2">
+      <formula>$D3="L"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="3" stopIfTrue="1">
+      <formula>$D3="D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="K3:K4" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD4F7E8-10FE-9343-89E1-12101028EF65}">
+  <dimension ref="A5:T22"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.5" customWidth="1"/>
+    <col min="14" max="16" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.83203125" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" customWidth="1"/>
+    <col min="19" max="19" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:20" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="60"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="55"/>
+      <c r="B8" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="N8" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="P8" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q8" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="R8" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="S8" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="T8" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="55"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="55"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="55"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="65">
+        <v>3</v>
+      </c>
+      <c r="C13" s="65"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="55">
+        <f>SUM(B13:S13)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55">
+        <f>SUM(B14:S14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65">
+        <v>3</v>
+      </c>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="55">
+        <f>SUM(B15:S15)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55">
+        <f>SUM(B16:S16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55">
+        <f>SUM(B17:S17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="65">
+        <v>1</v>
+      </c>
+      <c r="C18" s="65"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55">
+        <f>SUM(B18:S18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="65">
+        <v>2</v>
+      </c>
+      <c r="C19" s="65">
+        <v>2</v>
+      </c>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55">
+        <f>SUM(B19:S19)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65">
+        <v>1</v>
+      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55">
+        <f>SUM(B20:S20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55">
+        <f>SUM(B21:S21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55">
+        <f>SUM(B22:S22)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:T6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2AB1E3-EB5C-844B-B436-311A4E55F778}">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="P1" activeCellId="2" sqref="M1:O1 Q1 P1"/>
+    <sheetView zoomScale="97" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
@@ -3329,7 +10429,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3344,52 +10444,52 @@
         <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>6</v>
+      <c r="A2" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -3401,20 +10501,28 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+      <c r="M2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
+      <c r="Q2" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="R2" s="5"/>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>9</v>
+      <c r="A3" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -3426,20 +10534,28 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
+      <c r="M3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
+      <c r="Q3" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="R3" s="5"/>
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>29</v>
+      <c r="A4" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -3451,20 +10567,28 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
+      <c r="M4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
+      <c r="Q4" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="R4" s="5"/>
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>31</v>
+      <c r="A5" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -3476,20 +10600,28 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
+      <c r="M5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
+      <c r="Q5" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="R5" s="5"/>
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>32</v>
+      <c r="A6" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -3501,20 +10633,28 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
+      <c r="M6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
+      <c r="Q6" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="R6" s="5"/>
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>33</v>
+      <c r="A7" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3526,20 +10666,28 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
+      <c r="M7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
+      <c r="Q7" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="R7" s="5"/>
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>37</v>
+      <c r="A8" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -3551,20 +10699,28 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
+      <c r="M8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
+      <c r="Q8" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="R8" s="5"/>
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>61</v>
+      <c r="A9" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -3576,20 +10732,25 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
+      <c r="M9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
+      <c r="Q9" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="R9" s="5"/>
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="B10" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -3610,11 +10771,11 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>73</v>
+      <c r="A11" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -3626,17 +10787,25 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
+      <c r="M11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+      <c r="Q11" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="R11" s="5"/>
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C12" s="5">
         <f>SUM(Table15[Steals])</f>
@@ -3698,10 +10867,10 @@
       <c r="R12" s="5"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" ht="19" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:19" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="20" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:19" ht="41" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="7"/>
@@ -3727,4 +10896,323 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009DA1B9DF0DAC5048BFBEE42EC160F580" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f861e09242cb3cfe2c211e6943d7cd1">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b84cef8f-85bd-4220-b41e-1b776e076b5a" xmlns:ns3="58176e20-8a4d-4789-9c21-a28681261210" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="004947652ce8d19adb8fcfc5b54470db" ns2:_="" ns3:_="">
+    <xsd:import namespace="b84cef8f-85bd-4220-b41e-1b776e076b5a"/>
+    <xsd:import namespace="58176e20-8a4d-4789-9c21-a28681261210"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b84cef8f-85bd-4220-b41e-1b776e076b5a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="48a77a0f-c8dd-49b1-9ad4-afc48ce0e7e0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="58176e20-8a4d-4789-9c21-a28681261210" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6fffe578-1058-4256-99aa-13f59f7555e4}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="58176e20-8a4d-4789-9c21-a28681261210">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b84cef8f-85bd-4220-b41e-1b776e076b5a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="58176e20-8a4d-4789-9c21-a28681261210" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B35892E-3AE7-449A-8561-D32863A7EBAC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b84cef8f-85bd-4220-b41e-1b776e076b5a"/>
+    <ds:schemaRef ds:uri="58176e20-8a4d-4789-9c21-a28681261210"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{738A064E-9022-464F-94F2-82AA30FD7668}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{459A7BDE-EE3D-43D1-A1F2-94F2C6EED899}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="b84cef8f-85bd-4220-b41e-1b776e076b5a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="58176e20-8a4d-4789-9c21-a28681261210"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>